--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
   <si>
     <t>类型</t>
   </si>
@@ -743,6 +743,18 @@
   </si>
   <si>
     <t>Ebay售价</t>
+  </si>
+  <si>
+    <t>英国微包</t>
+  </si>
+  <si>
+    <t>小于200g</t>
+  </si>
+  <si>
+    <t>69元/KG+5.5</t>
+  </si>
+  <si>
+    <t>200g</t>
   </si>
   <si>
     <t>品名</t>
@@ -1035,10 +1047,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1082,13 +1094,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1100,27 +1138,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
@@ -1128,7 +1145,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1143,26 +1160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1181,6 +1179,13 @@
       <charset val="0"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -1188,10 +1193,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1245,13 +1257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,13 +1281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,25 +1305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,6 +1360,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -1366,16 +1393,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1391,21 +1420,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,10 +1450,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -1458,136 +1470,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1683,34 +1695,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="输入" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="差" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="警告文本" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle name="强调文字颜色 1" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -3244,16 +3256,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="5"/>
@@ -3285,24 +3298,35 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="3:5">
-      <c r="C2" s="1">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.15</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2*66+5</f>
-        <v>14.9</v>
-      </c>
-      <c r="E2" s="5">
-        <f>(B2+D2)</f>
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="3" spans="10:10">
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="10:10">
-      <c r="J4" s="8"/>
+      <c r="D4" s="1">
+        <f>C4*69+5.5</f>
+        <v>15.85</v>
+      </c>
+      <c r="E4" s="5">
+        <f>(B4+D4)*1.4/8.6-2.9</f>
+        <v>3.42441860465116</v>
+      </c>
     </row>
     <row r="5" spans="10:10">
       <c r="J5" s="8"/>
@@ -3372,6 +3396,12 @@
     </row>
     <row r="27" spans="10:10">
       <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3416,64 +3446,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3484,241 +3514,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
   <si>
     <t>类型</t>
   </si>
@@ -752,6 +752,12 @@
   </si>
   <si>
     <t>69元/KG+5.5</t>
+  </si>
+  <si>
+    <t>大于200g</t>
+  </si>
+  <si>
+    <t>34元/KG+18</t>
   </si>
   <si>
     <t>200g</t>
@@ -1088,44 +1094,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1144,11 +1112,30 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -1160,9 +1147,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1179,13 +1193,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -1193,17 +1200,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1257,12 +1263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1275,13 +1275,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,19 +1317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,21 +1366,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -1393,18 +1384,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,6 +1409,21 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,8 +1454,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -1470,139 +1476,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1695,34 +1701,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -3259,7 +3265,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3309,9 +3315,17 @@
         <v>230</v>
       </c>
     </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1">
         <v>23</v>
@@ -3446,64 +3460,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3514,241 +3528,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8520" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8505" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="recommended_browse_nodes_">'[1]Dropdown Lists'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -37,7 +36,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331">
   <si>
     <t>类型</t>
   </si>
@@ -761,6 +759,12 @@
   </si>
   <si>
     <t>200g</t>
+  </si>
+  <si>
+    <t>TD印花T恤</t>
+  </si>
+  <si>
+    <t>连线运动T恤</t>
   </si>
   <si>
     <t>品名</t>
@@ -1053,12 +1057,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1094,38 +1098,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1138,9 +1130,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1152,8 +1144,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1173,43 +1210,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1263,31 +1267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,13 +1291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,93 +1342,30 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1446,8 +1387,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,153 +1418,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1694,59 +1698,60 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="强调文字颜色 4" xfId="4"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
+        <scheme val="none"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -1754,7 +1759,7 @@
         <color indexed="8"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="10"/>
           <bgColor indexed="9"/>
         </patternFill>
@@ -1775,6 +1780,12 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1867,71 +1878,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2143,12 +2154,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -2573,7 +2583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2767,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -3029,7 +3039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3260,12 +3270,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3342,10 +3352,44 @@
         <v>3.42441860465116</v>
       </c>
     </row>
-    <row r="5" spans="10:10">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5*69+5.5</f>
+        <v>15.85</v>
+      </c>
+      <c r="E5" s="5">
+        <f>(B5+D5)*1.4/8.6-2.9</f>
+        <v>3.26162790697674</v>
+      </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="10:10">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6*69+5.5</f>
+        <v>15.85</v>
+      </c>
+      <c r="E6" s="5">
+        <f>(B6+D6)*1.4/8.6-2.9</f>
+        <v>3.58720930232558</v>
+      </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="10:10">
@@ -3425,7 +3469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -3460,64 +3504,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3528,241 +3572,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8505" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8520" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333">
   <si>
     <t>类型</t>
   </si>
@@ -765,6 +765,12 @@
   </si>
   <si>
     <t>连线运动T恤</t>
+  </si>
+  <si>
+    <t>连线运动长裤</t>
+  </si>
+  <si>
+    <t>流光运动长裤</t>
   </si>
   <si>
     <t>品名</t>
@@ -1057,12 +1063,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1097,25 +1103,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -1137,22 +1124,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1165,13 +1138,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1183,30 +1182,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1214,6 +1200,26 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1267,31 +1273,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,13 +1297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +1321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,17 +1375,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
+      <left style="thin">
+        <color indexed="22"/>
       </left>
-      <right style="double">
-        <color indexed="63"/>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,50 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1466,6 +1428,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1474,10 +1480,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,133 +1492,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3275,7 +3281,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3392,10 +3398,44 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="10:10">
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7*69+5.5</f>
+        <v>15.85</v>
+      </c>
+      <c r="E7" s="5">
+        <f>(B7+D7)*1.4/8.6-2.9</f>
+        <v>3.75</v>
+      </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="10:10">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8*69+5.5</f>
+        <v>15.85</v>
+      </c>
+      <c r="E8" s="5">
+        <f>(B8+D8)*1.4/8.6-2.9</f>
+        <v>5.37790697674419</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="10:10">
@@ -3504,64 +3544,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3572,241 +3612,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334">
   <si>
     <t>类型</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>流光运动长裤</t>
+  </si>
+  <si>
+    <t>男印花长裤</t>
   </si>
   <si>
     <t>品名</t>
@@ -1063,12 +1066,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1103,16 +1106,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1125,13 +1152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1143,8 +1164,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1155,28 +1177,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1189,7 +1192,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1202,12 +1205,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -1218,6 +1215,12 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1273,7 +1276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,7 +1300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,43 +1330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,30 +1379,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -1432,8 +1411,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,7 +1451,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1472,6 +1466,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1480,10 +1483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,133 +1495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1638,16 +1641,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3281,7 +3284,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3438,7 +3441,24 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="10:10">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="1">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C9*69+5.5</f>
+        <v>15.85</v>
+      </c>
+      <c r="E9" s="5">
+        <f>(B9+D9)*1.4/8.6-2.9</f>
+        <v>4.23837209302326</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="10:10">
@@ -3544,64 +3564,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3612,241 +3632,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="14220" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
   <si>
     <t>类型</t>
   </si>
@@ -774,6 +774,9 @@
   </si>
   <si>
     <t>男印花长裤</t>
+  </si>
+  <si>
+    <t>男插袖彩色长T</t>
   </si>
   <si>
     <t>品名</t>
@@ -1070,8 +1073,8 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1107,14 +1110,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1132,47 +1148,35 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1185,42 +1189,41 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1276,7 +1279,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,25 +1309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,25 +1327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,6 +1381,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1389,30 +1412,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1451,18 +1450,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,6 +1463,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1483,10 +1486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,31 +1498,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1528,100 +1537,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,16 +1644,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3284,7 +3287,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3353,11 +3356,11 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="1">
-        <f>C4*69+5.5</f>
+        <f t="shared" ref="D4:D9" si="0">C4*69+5.5</f>
         <v>15.85</v>
       </c>
       <c r="E4" s="5">
-        <f>(B4+D4)*1.4/8.6-2.9</f>
+        <f t="shared" ref="E4:E9" si="1">(B4+D4)*1.4/8.6-2.9</f>
         <v>3.42441860465116</v>
       </c>
     </row>
@@ -3372,11 +3375,11 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="1">
-        <f>C5*69+5.5</f>
+        <f t="shared" si="0"/>
         <v>15.85</v>
       </c>
       <c r="E5" s="5">
-        <f>(B5+D5)*1.4/8.6-2.9</f>
+        <f t="shared" si="1"/>
         <v>3.26162790697674</v>
       </c>
       <c r="J5" s="8"/>
@@ -3392,11 +3395,11 @@
         <v>0.15</v>
       </c>
       <c r="D6" s="1">
-        <f>C6*69+5.5</f>
+        <f t="shared" si="0"/>
         <v>15.85</v>
       </c>
       <c r="E6" s="5">
-        <f>(B6+D6)*1.4/8.6-2.9</f>
+        <f t="shared" si="1"/>
         <v>3.58720930232558</v>
       </c>
       <c r="J6" s="8"/>
@@ -3412,11 +3415,11 @@
         <v>0.15</v>
       </c>
       <c r="D7" s="1">
-        <f>C7*69+5.5</f>
+        <f t="shared" si="0"/>
         <v>15.85</v>
       </c>
       <c r="E7" s="5">
-        <f>(B7+D7)*1.4/8.6-2.9</f>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="J7" s="8"/>
@@ -3432,11 +3435,11 @@
         <v>0.15</v>
       </c>
       <c r="D8" s="1">
-        <f>C8*69+5.5</f>
+        <f t="shared" si="0"/>
         <v>15.85</v>
       </c>
       <c r="E8" s="5">
-        <f>(B8+D8)*1.4/8.6-2.9</f>
+        <f t="shared" si="1"/>
         <v>5.37790697674419</v>
       </c>
       <c r="J8" s="8"/>
@@ -3452,16 +3455,33 @@
         <v>0.15</v>
       </c>
       <c r="D9" s="1">
-        <f>C9*69+5.5</f>
+        <f t="shared" si="0"/>
         <v>15.85</v>
       </c>
       <c r="E9" s="5">
-        <f>(B9+D9)*1.4/8.6-2.9</f>
+        <f t="shared" si="1"/>
         <v>4.23837209302326</v>
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="10:10">
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="1">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="1">
+        <f>C10*69+5.5</f>
+        <v>19.3</v>
+      </c>
+      <c r="E10" s="5">
+        <f>(B10+D10)*1.4/8.6-2.9</f>
+        <v>4.8</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="10:10">
@@ -3564,64 +3584,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3632,241 +3652,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
   <si>
     <t>类型</t>
   </si>
@@ -777,6 +777,9 @@
   </si>
   <si>
     <t>男插袖彩色长T</t>
+  </si>
+  <si>
+    <t>男运动套装001</t>
   </si>
   <si>
     <t>品名</t>
@@ -1069,9 +1072,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -1110,73 +1113,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1188,15 +1131,27 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1210,13 +1165,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1224,6 +1214,19 @@
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1279,7 +1282,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,7 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,43 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,13 +1384,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,8 +1402,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,17 +1423,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,15 +1456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1478,6 +1470,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1486,10 +1489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1498,133 +1501,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3287,7 +3290,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3356,11 +3359,11 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D9" si="0">C4*69+5.5</f>
+        <f t="shared" ref="D4:D11" si="0">C4*69+5.5</f>
         <v>15.85</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E9" si="1">(B4+D4)*1.4/8.6-2.9</f>
+        <f t="shared" ref="E4:E11" si="1">(B4+D4)*1.4/8.6-2.9</f>
         <v>3.42441860465116</v>
       </c>
     </row>
@@ -3475,16 +3478,33 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="1">
-        <f>C10*69+5.5</f>
+        <f t="shared" si="0"/>
         <v>19.3</v>
       </c>
       <c r="E10" s="5">
-        <f>(B10+D10)*1.4/8.6-2.9</f>
+        <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="10:10">
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="1">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>33.1</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>11.9302325581395</v>
+      </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="10:10">
@@ -3584,64 +3604,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3652,241 +3672,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14220" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8520" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -1072,9 +1072,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -1113,20 +1113,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1138,20 +1165,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1165,19 +1186,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1190,20 +1205,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
@@ -1211,9 +1212,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1282,6 +1282,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1294,19 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,7 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,19 +1324,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1385,30 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -1399,26 +1423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,23 +1465,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,10 +1489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1501,133 +1501,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3290,7 +3290,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -1075,12 +1075,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1116,7 +1116,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1135,46 +1160,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1187,10 +1182,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <i/>
@@ -1200,9 +1208,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1222,14 +1229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1285,7 +1285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1297,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,43 +1345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,54 +1388,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -1455,6 +1407,21 @@
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,6 +1451,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1492,10 +1492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,133 +1504,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3362,11 +3362,11 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D11" si="0">C4*69+5.5</f>
+        <f t="shared" ref="D4:D12" si="0">C4*69+5.5</f>
         <v>15.85</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E11" si="1">(B4+D4)*1.4/8.6-2.9</f>
+        <f t="shared" ref="E4:E12" si="1">(B4+D4)*1.4/8.6-2.9</f>
         <v>3.42441860465116</v>
       </c>
     </row>
@@ -3515,18 +3515,18 @@
         <v>241</v>
       </c>
       <c r="B12" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="1">
-        <f>C12*69+5.5</f>
-        <v>15.85</v>
+        <f t="shared" si="0"/>
+        <v>26.2</v>
       </c>
       <c r="E12" s="5">
-        <f>(B12+D12)*1.4/8.6-2.9</f>
-        <v>3.75</v>
+        <f t="shared" si="1"/>
+        <v>8.36511627906977</v>
       </c>
       <c r="J12" s="8"/>
     </row>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -1075,12 +1075,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1115,72 +1115,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -1189,27 +1123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1228,8 +1142,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1285,13 +1285,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,49 +1339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,26 +1387,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,6 +1407,54 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1451,39 +1484,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1492,10 +1492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,133 +1504,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3515,18 +3515,18 @@
         <v>241</v>
       </c>
       <c r="B12" s="1">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>26.2</v>
+        <v>12.4</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>8.36511627906977</v>
+        <v>2.37441860465116</v>
       </c>
       <c r="J12" s="8"/>
     </row>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13800" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="14970" yWindow="7650" windowWidth="9210" windowHeight="6570" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
   <si>
     <t>类型</t>
   </si>
@@ -746,16 +746,16 @@
     <t>英国微包</t>
   </si>
   <si>
-    <t>小于200g</t>
-  </si>
-  <si>
-    <t>69元/KG+5.5</t>
-  </si>
-  <si>
-    <t>大于200g</t>
-  </si>
-  <si>
-    <t>34元/KG+18</t>
+    <t>小于2000g</t>
+  </si>
+  <si>
+    <t>37元/KG+16</t>
+  </si>
+  <si>
+    <t>大于2000g</t>
+  </si>
+  <si>
+    <t>35元/KG+18</t>
   </si>
   <si>
     <t>200g</t>
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>中性印花休闲T恤</t>
+  </si>
+  <si>
+    <t>三件套</t>
   </si>
   <si>
     <t>品名</t>
@@ -1076,9 +1079,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1115,47 +1118,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -1168,8 +1130,9 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1180,36 +1143,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1223,13 +1159,80 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1291,13 +1294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,7 +1318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,7 +1336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,19 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,11 +1390,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,21 +1444,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="63"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color indexed="63"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="63"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -1458,32 +1487,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1492,10 +1495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,133 +1507,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3293,7 +3296,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3362,12 +3365,12 @@
         <v>0.15</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D12" si="0">C4*69+5.5</f>
-        <v>15.85</v>
+        <f>C4*37+16</f>
+        <v>21.55</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E12" si="1">(B4+D4)*1.4/8.6-2.9</f>
-        <v>3.42441860465116</v>
+        <f t="shared" ref="E4:E12" si="0">(B4+D4)*1.4/8.6-2.9</f>
+        <v>4.35232558139535</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3381,12 +3384,12 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ref="D5:D12" si="1">C5*37+16</f>
+        <v>21.55</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>15.85</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>3.26162790697674</v>
+        <v>4.18953488372093</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -3401,12 +3404,12 @@
         <v>0.15</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>21.55</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>15.85</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>3.58720930232558</v>
+        <v>4.51511627906977</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -3421,12 +3424,12 @@
         <v>0.15</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>21.55</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>15.85</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>4.67790697674418</v>
       </c>
       <c r="J7" s="8"/>
     </row>
@@ -3441,12 +3444,12 @@
         <v>0.15</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>21.55</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>15.85</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>5.37790697674419</v>
+        <v>6.30581395348837</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -3461,12 +3464,12 @@
         <v>0.15</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>21.55</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>15.85</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>4.23837209302326</v>
+        <v>5.16627906976744</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -3481,12 +3484,12 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>23.4</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>19.3</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>5.46744186046512</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -3501,12 +3504,12 @@
         <v>0.4</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>30.8</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>33.1</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>11.9302325581395</v>
+        <v>11.5558139534884</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -3521,34 +3524,135 @@
         <v>0.1</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>19.7</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>12.4</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>2.37441860465116</v>
+        <v>3.56279069767442</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="10:10">
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C13*37+16</f>
+        <v>53</v>
+      </c>
+      <c r="E13" s="5">
+        <f>(B13+D13)*1.4/8.6-2.9</f>
+        <v>13.2162790697674</v>
+      </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="10:10">
+    <row r="14" spans="2:10">
+      <c r="B14" s="1">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C14*37+16</f>
+        <v>53</v>
+      </c>
+      <c r="E14" s="5">
+        <f>(B14+D14)*1.4/8.6-2.9</f>
+        <v>13.3790697674419</v>
+      </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="10:10">
+    <row r="15" spans="2:10">
+      <c r="B15" s="1">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C15*37+16</f>
+        <v>60.4</v>
+      </c>
+      <c r="E15" s="5">
+        <f>(B15+D15)*1.4/8.6-2.9</f>
+        <v>15.8860465116279</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="2:10">
+      <c r="B16" s="1">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16*37+16</f>
+        <v>53</v>
+      </c>
+      <c r="E16" s="5">
+        <f>(B16+D16)*1.4/8.6-2.9</f>
+        <v>11.7511627906977</v>
+      </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="2:10">
+      <c r="B17" s="1">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <f>C17*37+16</f>
+        <v>53</v>
+      </c>
+      <c r="E17" s="5">
+        <f>(B17+D17)*1.4/8.6-2.9</f>
+        <v>12.0767441860465</v>
+      </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="2:10">
+      <c r="B18" s="1">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18*37+16</f>
+        <v>71.5</v>
+      </c>
+      <c r="E18" s="5">
+        <f>(B18+D18)*1.4/8.6-2.9</f>
+        <v>16.7162790697674</v>
+      </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="2:10">
+      <c r="B19" s="1">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19*37+16</f>
+        <v>75.2</v>
+      </c>
+      <c r="E19" s="5">
+        <f>(B19+D19)*1.4/8.6-2.9</f>
+        <v>18.6209302325581</v>
+      </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="10:10">
@@ -3624,64 +3728,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3692,241 +3796,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14970" yWindow="7650" windowWidth="9210" windowHeight="6570" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="24180" windowHeight="14220" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -1078,10 +1078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1118,12 +1118,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -1138,101 +1232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1288,13 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,7 +1330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,7 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,28 +1390,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,8 +1441,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,24 +1464,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,10 +1495,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,7 +1507,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,124 +1516,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3296,7 +3296,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3369,7 +3369,7 @@
         <v>21.55</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E12" si="0">(B4+D4)*1.4/8.6-2.9</f>
+        <f t="shared" ref="E4:E19" si="0">(B4+D4)*1.4/8.6-2.9</f>
         <v>4.35232558139535</v>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D12" si="1">C5*37+16</f>
+        <f t="shared" ref="D5:D19" si="1">C5*37+16</f>
         <v>21.55</v>
       </c>
       <c r="E5" s="5">
@@ -3544,11 +3544,11 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f>C13*37+16</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E13" s="5">
-        <f>(B13+D13)*1.4/8.6-2.9</f>
+        <f t="shared" si="0"/>
         <v>13.2162790697674</v>
       </c>
       <c r="J13" s="8"/>
@@ -3561,11 +3561,11 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f>C14*37+16</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E14" s="5">
-        <f>(B14+D14)*1.4/8.6-2.9</f>
+        <f t="shared" si="0"/>
         <v>13.3790697674419</v>
       </c>
       <c r="J14" s="8"/>
@@ -3578,11 +3578,11 @@
         <v>1.2</v>
       </c>
       <c r="D15" s="1">
-        <f>C15*37+16</f>
+        <f t="shared" si="1"/>
         <v>60.4</v>
       </c>
       <c r="E15" s="5">
-        <f>(B15+D15)*1.4/8.6-2.9</f>
+        <f t="shared" si="0"/>
         <v>15.8860465116279</v>
       </c>
       <c r="J15" s="8"/>
@@ -3595,11 +3595,11 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f>C16*37+16</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E16" s="5">
-        <f>(B16+D16)*1.4/8.6-2.9</f>
+        <f t="shared" si="0"/>
         <v>11.7511627906977</v>
       </c>
       <c r="J16" s="8"/>
@@ -3612,11 +3612,11 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f>C17*37+16</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E17" s="5">
-        <f>(B17+D17)*1.4/8.6-2.9</f>
+        <f t="shared" si="0"/>
         <v>12.0767441860465</v>
       </c>
       <c r="J17" s="8"/>
@@ -3629,11 +3629,11 @@
         <v>1.5</v>
       </c>
       <c r="D18" s="1">
-        <f>C18*37+16</f>
+        <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
       <c r="E18" s="5">
-        <f>(B18+D18)*1.4/8.6-2.9</f>
+        <f t="shared" si="0"/>
         <v>16.7162790697674</v>
       </c>
       <c r="J18" s="8"/>
@@ -3646,19 +3646,47 @@
         <v>1.6</v>
       </c>
       <c r="D19" s="1">
-        <f>C19*37+16</f>
+        <f t="shared" si="1"/>
         <v>75.2</v>
       </c>
       <c r="E19" s="5">
-        <f>(B19+D19)*1.4/8.6-2.9</f>
+        <f t="shared" si="0"/>
         <v>18.6209302325581</v>
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="2:10">
+      <c r="B20" s="1">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20*37+16</f>
+        <v>27.1</v>
+      </c>
+      <c r="E20" s="5">
+        <f>(B20+D20)*1.4/8.6-2.9</f>
+        <v>5.09302325581395</v>
+      </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="2:10">
+      <c r="B21" s="1">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21*37+16</f>
+        <v>27.1</v>
+      </c>
+      <c r="E21" s="5">
+        <f>(B21+D21)*1.4/8.6-2.9</f>
+        <v>5.90697674418605</v>
+      </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="10:10">

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14220" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8505" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -1078,10 +1078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1118,6 +1118,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -1125,15 +1157,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1145,33 +1171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1191,15 +1191,21 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1211,6 +1217,13 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -1218,23 +1231,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1288,25 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,19 +1300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,7 +1324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,6 +1390,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1410,6 +1440,15 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,30 +1479,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -1472,21 +1487,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1495,145 +1495,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3296,7 +3296,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3369,8 +3369,8 @@
         <v>21.55</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E19" si="0">(B4+D4)*1.4/8.6-2.9</f>
-        <v>4.35232558139535</v>
+        <f>(B4+D4)*1.4/8.5</f>
+        <v>7.33764705882353</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3384,12 +3384,12 @@
         <v>0.15</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D19" si="1">C5*37+16</f>
+        <f t="shared" ref="D5:D21" si="0">C5*37+16</f>
         <v>21.55</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>4.18953488372093</v>
+        <f t="shared" ref="E5:E21" si="1">(B5+D5)*1.4/8.5</f>
+        <v>7.17294117647059</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -3404,12 +3404,12 @@
         <v>0.15</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>21.55</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>21.55</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>4.51511627906977</v>
+        <v>7.50235294117647</v>
       </c>
       <c r="J6" s="8"/>
     </row>
@@ -3424,12 +3424,12 @@
         <v>0.15</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>21.55</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>21.55</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>4.67790697674418</v>
+        <v>7.66705882352941</v>
       </c>
       <c r="J7" s="8"/>
     </row>
@@ -3444,12 +3444,12 @@
         <v>0.15</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>21.55</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>21.55</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>6.30581395348837</v>
+        <v>9.31411764705882</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -3464,12 +3464,12 @@
         <v>0.15</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>21.55</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>21.55</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>5.16627906976744</v>
+        <v>8.16117647058823</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -3484,12 +3484,12 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>23.4</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>23.4</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>5.46744186046512</v>
+        <v>8.46588235294118</v>
       </c>
       <c r="J10" s="8"/>
     </row>
@@ -3504,12 +3504,12 @@
         <v>0.4</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>30.8</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>11.5558139534884</v>
+        <v>14.6258823529412</v>
       </c>
       <c r="J11" s="8"/>
     </row>
@@ -3524,12 +3524,12 @@
         <v>0.1</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>19.7</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>19.7</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>3.56279069767442</v>
+        <v>6.53882352941176</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -3544,12 +3544,12 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>13.2162790697674</v>
+        <v>16.3058823529412</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -3561,12 +3561,12 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>13.3790697674419</v>
+        <v>16.4705882352941</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -3578,12 +3578,12 @@
         <v>1.2</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>60.4</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>60.4</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>15.8860465116279</v>
+        <v>19.0070588235294</v>
       </c>
       <c r="J15" s="8"/>
     </row>
@@ -3595,12 +3595,12 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>11.7511627906977</v>
+        <v>14.8235294117647</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -3612,12 +3612,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>12.0767441860465</v>
+        <v>15.1529411764706</v>
       </c>
       <c r="J17" s="8"/>
     </row>
@@ -3629,12 +3629,12 @@
         <v>1.5</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>71.5</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>71.5</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>16.7162790697674</v>
+        <v>19.8470588235294</v>
       </c>
       <c r="J18" s="8"/>
     </row>
@@ -3646,12 +3646,12 @@
         <v>1.6</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>75.2</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>75.2</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>18.6209302325581</v>
+        <v>21.7741176470588</v>
       </c>
       <c r="J19" s="8"/>
     </row>
@@ -3663,12 +3663,12 @@
         <v>0.3</v>
       </c>
       <c r="D20" s="1">
-        <f>C20*37+16</f>
+        <f t="shared" si="0"/>
         <v>27.1</v>
       </c>
       <c r="E20" s="5">
-        <f>(B20+D20)*1.4/8.6-2.9</f>
-        <v>5.09302325581395</v>
+        <f t="shared" si="1"/>
+        <v>8.08705882352941</v>
       </c>
       <c r="J20" s="8"/>
     </row>
@@ -3680,12 +3680,12 @@
         <v>0.3</v>
       </c>
       <c r="D21" s="1">
-        <f>C21*37+16</f>
+        <f t="shared" si="0"/>
         <v>27.1</v>
       </c>
       <c r="E21" s="5">
-        <f>(B21+D21)*1.4/8.6-2.9</f>
-        <v>5.90697674418605</v>
+        <f t="shared" si="1"/>
+        <v>8.91058823529412</v>
       </c>
       <c r="J21" s="8"/>
     </row>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8505" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="9210" yWindow="6570" windowWidth="9210" windowHeight="6570" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -1119,33 +1119,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1170,8 +1150,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1181,13 +1169,6 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1210,16 +1191,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1230,11 +1204,37 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1288,19 +1288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,13 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,19 +1324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,17 +1390,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,15 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1440,15 +1425,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,6 +1453,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1495,145 +1495,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3296,7 +3296,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3689,7 +3689,21 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="10:10">
+    <row r="22" spans="2:10">
+      <c r="B22" s="1">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22*37+16</f>
+        <v>34.5</v>
+      </c>
+      <c r="E22" s="5">
+        <f>(B22+D22)*1.4/8.4</f>
+        <v>11.0833333333333</v>
+      </c>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="10:10">

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="6570" windowWidth="9210" windowHeight="6570" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="9105" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342">
   <si>
     <t>类型</t>
   </si>
@@ -731,16 +731,22 @@
     <t>重量</t>
   </si>
   <si>
-    <t>运费</t>
-  </si>
-  <si>
-    <t>亚马逊最低价</t>
-  </si>
-  <si>
-    <t>亚马逊标价</t>
-  </si>
-  <si>
-    <t>Ebay售价</t>
+    <t>英国运费</t>
+  </si>
+  <si>
+    <t>德国运费</t>
+  </si>
+  <si>
+    <t>意法西运费</t>
+  </si>
+  <si>
+    <t>英国站价格</t>
+  </si>
+  <si>
+    <t>德国价格</t>
+  </si>
+  <si>
+    <t>意法西价格</t>
   </si>
   <si>
     <t>英国微包</t>
@@ -756,6 +762,12 @@
   </si>
   <si>
     <t>35元/KG+18</t>
+  </si>
+  <si>
+    <t>50元/KG+20</t>
+  </si>
+  <si>
+    <t>40元/KG+20</t>
   </si>
   <si>
     <t>200g</t>
@@ -1078,11 +1090,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
@@ -1119,13 +1131,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1137,29 +1168,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1171,29 +1182,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1217,10 +1207,39 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1228,13 +1247,6 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1264,12 +1276,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="9"/>
       </patternFill>
@@ -1288,6 +1294,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1300,13 +1342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,42 +1360,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1390,65 +1402,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1479,6 +1441,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -1487,6 +1497,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1495,149 +1520,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1656,11 +1681,17 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1683,12 +1714,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1698,7 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2195,141 +2226,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2338,8 +2369,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2347,7 +2378,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2358,7 +2389,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2367,7 +2398,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2376,7 +2407,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2385,7 +2416,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2425,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2403,7 +2434,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2414,7 +2445,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2423,7 +2454,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2432,7 +2463,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2441,7 +2472,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2450,22 +2481,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2482,7 +2513,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2490,25 +2521,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2522,7 +2553,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2530,25 +2561,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="11"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2562,7 +2593,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2570,13 +2601,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2620,18 +2651,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2642,7 +2673,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -2651,7 +2682,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2660,7 +2691,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2669,7 +2700,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>95</v>
       </c>
@@ -2678,7 +2709,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -2689,7 +2720,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
@@ -2698,7 +2729,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2707,7 +2738,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2727,7 +2758,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -2738,7 +2769,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
@@ -2747,7 +2778,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -2756,7 +2787,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
@@ -2767,7 +2798,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -2776,7 +2807,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -2813,178 +2844,178 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2995,7 +3026,7 @@
       <c r="B17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="22" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3006,7 +3037,7 @@
       <c r="B18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="22" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3020,32 +3051,32 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:C10 C3">
+  <conditionalFormatting sqref="C3 C8:C10">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(LEN(C3)&gt;0,1,0)</formula>
     </cfRule>
@@ -3076,16 +3107,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E1" t="s">
@@ -3093,131 +3124,131 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -3226,7 +3257,7 @@
       <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
@@ -3234,14 +3265,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E13" t="s">
@@ -3249,14 +3280,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>195</v>
       </c>
       <c r="E14" t="s">
@@ -3264,14 +3295,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E15" t="s">
@@ -3293,26 +3324,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="5"/>
-    <col min="8" max="9" width="9" style="7"/>
+    <col min="4" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="6"/>
+    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
     <col min="10" max="10" width="16" style="7"/>
     <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -3325,120 +3355,138 @@
       <c r="D1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>226</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>227</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="C5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D5" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="1">
         <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4*37+16</f>
-        <v>21.55</v>
-      </c>
-      <c r="E4" s="5">
-        <f>(B4+D4)*1.4/8.5</f>
-        <v>7.33764705882353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D21" si="0">C5*37+16</f>
-        <v>21.55</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E21" si="1">(B5+D5)*1.4/8.5</f>
-        <v>7.17294117647059</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="1">
-        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>0.15</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f>C6*37+16</f>
         <v>21.55</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>7.50235294117647</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="E6" s="1">
+        <f>C6*43+20</f>
+        <v>26.45</v>
+      </c>
+      <c r="F6" s="1">
+        <f>C6*55+20</f>
+        <v>28.25</v>
+      </c>
+      <c r="G6" s="5">
+        <f>(B6+D6)*1.4/8.5</f>
+        <v>7.33764705882353</v>
+      </c>
+      <c r="H6" s="6">
+        <f>(B6+E6)*1.4/7.4</f>
+        <v>9.35540540540541</v>
+      </c>
+      <c r="I6" s="6">
+        <f>(B6+F6)*1.4/7.4</f>
+        <v>9.69594594594595</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B7" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
         <v>0.15</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7:D24" si="0">C7*37+16</f>
         <v>21.55</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>7.66705882352941</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E27" si="1">C7*43+20</f>
+        <v>26.45</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F27" si="2">C7*55+20</f>
+        <v>28.25</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G23" si="3">(B7+D7)*1.4/8.5</f>
+        <v>7.17294117647059</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H27" si="4">(B7+E7)*1.4/7.4</f>
+        <v>9.16621621621622</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ref="I7:I27" si="5">(B7+F7)*1.4/7.4</f>
+        <v>9.50675675675676</v>
+      </c>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>0.15</v>
@@ -3447,18 +3495,34 @@
         <f t="shared" si="0"/>
         <v>21.55</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>9.31411764705882</v>
-      </c>
-      <c r="J8" s="8"/>
+        <v>26.45</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>28.25</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>7.50235294117647</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="4"/>
+        <v>9.54459459459459</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="5"/>
+        <v>9.88513513513513</v>
+      </c>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>0.15</v>
@@ -3467,129 +3531,247 @@
         <f t="shared" si="0"/>
         <v>21.55</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>8.16117647058823</v>
-      </c>
-      <c r="J9" s="8"/>
+        <v>26.45</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>28.25</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>7.66705882352941</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="4"/>
+        <v>9.73378378378378</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="5"/>
+        <v>10.0743243243243</v>
+      </c>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>23.4</v>
-      </c>
-      <c r="E10" s="5">
+        <v>21.55</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>8.46588235294118</v>
-      </c>
-      <c r="J10" s="8"/>
+        <v>26.45</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>28.25</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>9.31411764705882</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="4"/>
+        <v>11.6256756756757</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="5"/>
+        <v>11.9662162162162</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-      <c r="E11" s="5">
+        <v>21.55</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>14.6258823529412</v>
-      </c>
-      <c r="J11" s="8"/>
+        <v>26.45</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>28.25</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>8.16117647058823</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="4"/>
+        <v>10.3013513513514</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="5"/>
+        <v>10.6418918918919</v>
+      </c>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>19.7</v>
-      </c>
-      <c r="E12" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>6.53882352941176</v>
-      </c>
-      <c r="J12" s="8"/>
+        <v>28.6</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>8.46588235294118</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="4"/>
+        <v>10.7081081081081</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="5"/>
+        <v>11.1621621621622</v>
+      </c>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="E13" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>16.3058823529412</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="2:10">
+        <v>37.2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>14.6258823529412</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="4"/>
+        <v>18.0108108108108</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="5"/>
+        <v>18.9189189189189</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B14" s="1">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="E14" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>16.4705882352941</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="2:10">
+        <v>24.3</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>6.53882352941176</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="4"/>
+        <v>8.38108108108108</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="5"/>
+        <v>8.60810810810811</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="B15" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>60.4</v>
-      </c>
-      <c r="E15" s="5">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>19.0070588235294</v>
-      </c>
-      <c r="J15" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>16.3058823529412</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="4"/>
+        <v>20.6216216216216</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>22.8918918918919</v>
+      </c>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -3598,136 +3780,407 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>14.8235294117647</v>
-      </c>
-      <c r="J16" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>16.4705882352941</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="4"/>
+        <v>20.8108108108108</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="5"/>
+        <v>23.0810810810811</v>
+      </c>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="E17" s="5">
+        <v>60.4</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>15.1529411764706</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>71.6</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>19.0070588235294</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="4"/>
+        <v>23.9513513513513</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="5"/>
+        <v>26.6756756756757</v>
+      </c>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>71.5</v>
-      </c>
-      <c r="E18" s="5">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>19.8470588235294</v>
-      </c>
-      <c r="J18" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>14.8235294117647</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="4"/>
+        <v>18.9189189189189</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="5"/>
+        <v>21.1891891891892</v>
+      </c>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>75.2</v>
-      </c>
-      <c r="E19" s="5">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>21.7741176470588</v>
-      </c>
-      <c r="J19" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>15.1529411764706</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="4"/>
+        <v>19.2972972972973</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="5"/>
+        <v>21.5675675675676</v>
+      </c>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>27.1</v>
-      </c>
-      <c r="E20" s="5">
+        <v>71.5</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>8.08705882352941</v>
-      </c>
-      <c r="J20" s="8"/>
+        <v>84.5</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>102.5</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>19.8470588235294</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="4"/>
+        <v>25.2567567567568</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="5"/>
+        <v>28.6621621621622</v>
+      </c>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="1">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>27.1</v>
-      </c>
-      <c r="E21" s="5">
+        <v>75.2</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>8.91058823529412</v>
-      </c>
-      <c r="J21" s="8"/>
+        <v>88.8</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>21.7741176470588</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="4"/>
+        <v>27.5837837837838</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="5"/>
+        <v>31.2162162162162</v>
+      </c>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="1">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>27.1</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>32.9</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>8.08705882352941</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="4"/>
+        <v>10.3864864864865</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="5"/>
+        <v>11.0675675675676</v>
+      </c>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="1">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>27.1</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>32.9</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>8.91058823529412</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="4"/>
+        <v>11.3324324324324</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="5"/>
+        <v>12.0135135135135</v>
+      </c>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="1">
         <v>32</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C24" s="1">
         <v>0.5</v>
       </c>
-      <c r="D22" s="1">
-        <f>C22*37+16</f>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-      <c r="E22" s="5">
-        <f>(B22+D22)*1.4/8.4</f>
-        <v>11.0833333333333</v>
-      </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="10:10">
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="10:10">
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="10:10">
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="10:10">
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="10:10">
-      <c r="J27" s="8"/>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>41.5</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="G24" s="5">
+        <f>(B24+D24)*1.4/8.5</f>
+        <v>10.9529411764706</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="4"/>
+        <v>13.9054054054054</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="5"/>
+        <v>15.0405405405405</v>
+      </c>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="1">
+        <v>147</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25*37+16</f>
+        <v>71.5</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>84.5</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>102.5</v>
+      </c>
+      <c r="G25" s="5">
+        <f>(B25+D25)*1.4/8.5</f>
+        <v>35.9882352941176</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="4"/>
+        <v>43.7972972972973</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="5"/>
+        <v>47.2027027027027</v>
+      </c>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="1">
+        <v>183</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C26*37+16</f>
+        <v>90</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="G26" s="5">
+        <f>(B26+D26)*1.4/8.5</f>
+        <v>44.9647058823529</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="4"/>
+        <v>54.6756756756757</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="5"/>
+        <v>59.2162162162162</v>
+      </c>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="1">
+        <v>210</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D27" s="1">
+        <f>C27*37+16</f>
+        <v>108.5</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>157.5</v>
+      </c>
+      <c r="G27" s="5">
+        <f>(B27+D27)*1.4/8.5</f>
+        <v>52.4588235294118</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="4"/>
+        <v>63.8513513513513</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="5"/>
+        <v>69.527027027027</v>
+      </c>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="10:10">
-      <c r="J28" s="8"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="10:10">
-      <c r="J29" s="8"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3770,64 +4223,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3838,241 +4291,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9105" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="13800" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
   <si>
     <t>类型</t>
   </si>
@@ -740,6 +740,9 @@
     <t>意法西运费</t>
   </si>
   <si>
+    <t>美国运费</t>
+  </si>
+  <si>
     <t>英国站价格</t>
   </si>
   <si>
@@ -747,6 +750,12 @@
   </si>
   <si>
     <t>意法西价格</t>
+  </si>
+  <si>
+    <t>美国价格计算</t>
+  </si>
+  <si>
+    <t>英镑换算美元价格</t>
   </si>
   <si>
     <t>英国微包</t>
@@ -1089,24 +1098,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1130,10 +1132,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1142,21 +1152,14 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1168,41 +1171,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1216,14 +1193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1236,10 +1206,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1247,6 +1223,32 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1294,6 +1296,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1306,13 +1320,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,37 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,17 +1417,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
+      <left style="thin">
+        <color indexed="22"/>
       </left>
-      <right style="double">
-        <color indexed="63"/>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,8 +1435,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,30 +1467,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -1512,6 +1490,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1520,10 +1522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1532,7 +1534,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,121 +1546,121 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1678,10 +1680,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1693,16 +1698,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1729,19 +1731,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3324,25 +3326,26 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="6"/>
-    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16" style="7"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="4" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="6"/>
+    <col min="10" max="10" width="10.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="16" style="6"/>
+    <col min="12" max="12" width="17.125" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
@@ -3361,58 +3364,67 @@
       <c r="F1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>228</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>229</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1">
         <v>23</v>
@@ -3432,22 +3444,34 @@
         <f>C6*55+20</f>
         <v>28.25</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
+        <f>C6*68+10</f>
+        <v>20.2</v>
+      </c>
+      <c r="H6" s="5">
         <f>(B6+D6)*1.4/8.5</f>
         <v>7.33764705882353</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <f>(B6+E6)*1.4/7.4</f>
         <v>9.35540540540541</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <f>(B6+F6)*1.4/7.4</f>
         <v>9.69594594594595</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="6">
+        <f>(B6+G6)*1.4/6</f>
+        <v>10.08</v>
+      </c>
+      <c r="L6" s="7">
+        <f>1.4*H6</f>
+        <v>10.2727058823529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1">
         <v>22</v>
@@ -3456,34 +3480,45 @@
         <v>0.15</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D24" si="0">C7*37+16</f>
+        <f t="shared" ref="D7:D33" si="0">C7*37+16</f>
         <v>21.55</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E27" si="1">C7*43+20</f>
+        <f t="shared" ref="E7:E33" si="1">C7*43+20</f>
         <v>26.45</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F27" si="2">C7*55+20</f>
+        <f t="shared" ref="F7:F33" si="2">C7*55+20</f>
         <v>28.25</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7:G23" si="3">(B7+D7)*1.4/8.5</f>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G33" si="3">C7*68+10</f>
+        <v>20.2</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7:H27" si="4">(B7+D7)*1.4/8.5</f>
         <v>7.17294117647059</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" ref="H7:H27" si="4">(B7+E7)*1.4/7.4</f>
+      <c r="I7" s="6">
+        <f t="shared" ref="I7:I33" si="5">(B7+E7)*1.4/7.4</f>
         <v>9.16621621621622</v>
       </c>
-      <c r="I7" s="6">
-        <f t="shared" ref="I7:I27" si="5">(B7+F7)*1.4/7.4</f>
+      <c r="J7" s="6">
+        <f t="shared" ref="J7:J33" si="6">(B7+F7)*1.4/7.4</f>
         <v>9.50675675675676</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="6">
+        <f t="shared" ref="K7:K33" si="7">(B7+G7)*1.4/6</f>
+        <v>9.84666666666667</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" ref="L7:L34" si="8">1.4*H7</f>
+        <v>10.0421176470588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B8" s="1">
         <v>24</v>
@@ -3503,23 +3538,34 @@
         <f t="shared" si="2"/>
         <v>28.25</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
+        <v>20.2</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
         <v>7.50235294117647</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="4"/>
-        <v>9.54459459459459</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="5"/>
+        <v>9.54459459459459</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="6"/>
         <v>9.88513513513513</v>
       </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="6">
+        <f t="shared" si="7"/>
+        <v>10.3133333333333</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="8"/>
+        <v>10.5032941176471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B9" s="1">
         <v>25</v>
@@ -3539,23 +3585,34 @@
         <f t="shared" si="2"/>
         <v>28.25</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
+        <v>20.2</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
         <v>7.66705882352941</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="4"/>
-        <v>9.73378378378378</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="5"/>
+        <v>9.73378378378378</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="6"/>
         <v>10.0743243243243</v>
       </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="6">
+        <f t="shared" si="7"/>
+        <v>10.5466666666667</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="8"/>
+        <v>10.7338823529412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B10" s="1">
         <v>35</v>
@@ -3575,23 +3632,34 @@
         <f t="shared" si="2"/>
         <v>28.25</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="1">
         <f t="shared" si="3"/>
+        <v>20.2</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
         <v>9.31411764705882</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="4"/>
-        <v>11.6256756756757</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="5"/>
+        <v>11.6256756756757</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="6"/>
         <v>11.9662162162162</v>
       </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="6">
+        <f t="shared" si="7"/>
+        <v>12.88</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="8"/>
+        <v>13.0397647058823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B11" s="1">
         <v>28</v>
@@ -3611,23 +3679,34 @@
         <f t="shared" si="2"/>
         <v>28.25</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <f t="shared" si="3"/>
+        <v>20.2</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="4"/>
         <v>8.16117647058823</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="4"/>
-        <v>10.3013513513514</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="5"/>
+        <v>10.3013513513514</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="6"/>
         <v>10.6418918918919</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="6">
+        <f t="shared" si="7"/>
+        <v>11.2466666666667</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="8"/>
+        <v>11.4256470588235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B12" s="1">
         <v>28</v>
@@ -3647,23 +3726,34 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <f t="shared" si="3"/>
+        <v>23.6</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="4"/>
         <v>8.46588235294118</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="4"/>
-        <v>10.7081081081081</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="5"/>
+        <v>10.7081081081081</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="6"/>
         <v>11.1621621621622</v>
       </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="6">
+        <f t="shared" si="7"/>
+        <v>12.04</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="8"/>
+        <v>11.8522352941177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B13" s="1">
         <v>58</v>
@@ -3683,23 +3773,34 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="1">
         <f t="shared" si="3"/>
+        <v>37.2</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="4"/>
         <v>14.6258823529412</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="4"/>
-        <v>18.0108108108108</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="5"/>
+        <v>18.0108108108108</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="6"/>
         <v>18.9189189189189</v>
       </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="6">
+        <f t="shared" si="7"/>
+        <v>22.2133333333333</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="8"/>
+        <v>20.4762352941177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B14" s="1">
         <v>20</v>
@@ -3719,23 +3820,34 @@
         <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
         <v>6.53882352941176</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="4"/>
-        <v>8.38108108108108</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="5"/>
+        <v>8.38108108108108</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="6"/>
         <v>8.60810810810811</v>
       </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="6">
+        <f t="shared" si="7"/>
+        <v>8.58666666666667</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="8"/>
+        <v>9.15435294117646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1">
         <v>46</v>
@@ -3755,21 +3867,32 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="4"/>
         <v>16.3058823529412</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="4"/>
-        <v>20.6216216216216</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="5"/>
+        <v>20.6216216216216</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="6"/>
         <v>22.8918918918919</v>
       </c>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="K15" s="6">
+        <f t="shared" si="7"/>
+        <v>28.9333333333333</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="8"/>
+        <v>22.8282352941177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="1">
         <v>47</v>
       </c>
@@ -3788,21 +3911,32 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="4"/>
         <v>16.4705882352941</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="4"/>
-        <v>20.8108108108108</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="5"/>
+        <v>20.8108108108108</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="6"/>
         <v>23.0810810810811</v>
       </c>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16" s="6">
+        <f t="shared" si="7"/>
+        <v>29.1666666666667</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="8"/>
+        <v>23.0588235294117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="1">
         <v>55</v>
       </c>
@@ -3821,21 +3955,32 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <f t="shared" si="3"/>
+        <v>91.6</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="4"/>
         <v>19.0070588235294</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="4"/>
-        <v>23.9513513513513</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="5"/>
+        <v>23.9513513513513</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="6"/>
         <v>26.6756756756757</v>
       </c>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="K17" s="6">
+        <f t="shared" si="7"/>
+        <v>34.2066666666667</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="8"/>
+        <v>26.6098823529412</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="1">
         <v>37</v>
       </c>
@@ -3854,21 +3999,32 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="1">
         <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
         <v>14.8235294117647</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="4"/>
-        <v>18.9189189189189</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="5"/>
+        <v>18.9189189189189</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="6"/>
         <v>21.1891891891892</v>
       </c>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="K18" s="6">
+        <f t="shared" si="7"/>
+        <v>26.8333333333333</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="8"/>
+        <v>20.7529411764706</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="1">
         <v>39</v>
       </c>
@@ -3887,21 +4043,32 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="4"/>
         <v>15.1529411764706</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="4"/>
-        <v>19.2972972972973</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="5"/>
+        <v>19.2972972972973</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="6"/>
         <v>21.5675675675676</v>
       </c>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="K19" s="6">
+        <f t="shared" si="7"/>
+        <v>27.3</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="8"/>
+        <v>21.2141176470588</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="1">
         <v>49</v>
       </c>
@@ -3920,21 +4087,32 @@
         <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="1">
         <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="4"/>
         <v>19.8470588235294</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="4"/>
-        <v>25.2567567567568</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="5"/>
+        <v>25.2567567567568</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="6"/>
         <v>28.6621621621622</v>
       </c>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="K20" s="6">
+        <f t="shared" si="7"/>
+        <v>37.5666666666667</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="8"/>
+        <v>27.7858823529412</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="1">
         <v>57</v>
       </c>
@@ -3953,21 +4131,32 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <f t="shared" si="3"/>
+        <v>118.8</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="4"/>
         <v>21.7741176470588</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="4"/>
-        <v>27.5837837837838</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="5"/>
+        <v>27.5837837837838</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="6"/>
         <v>31.2162162162162</v>
       </c>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="6">
+        <f t="shared" si="7"/>
+        <v>41.02</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="8"/>
+        <v>30.4837647058823</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="1">
         <v>22</v>
       </c>
@@ -3986,21 +4175,32 @@
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="1">
         <f t="shared" si="3"/>
+        <v>30.4</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="4"/>
         <v>8.08705882352941</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="4"/>
-        <v>10.3864864864865</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="5"/>
+        <v>10.3864864864865</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="6"/>
         <v>11.0675675675676</v>
       </c>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="K22" s="6">
+        <f t="shared" si="7"/>
+        <v>12.2266666666667</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="8"/>
+        <v>11.3218823529412</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="1">
         <v>27</v>
       </c>
@@ -4019,21 +4219,32 @@
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="1">
         <f t="shared" si="3"/>
+        <v>30.4</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="4"/>
         <v>8.91058823529412</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="4"/>
-        <v>11.3324324324324</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="5"/>
+        <v>11.3324324324324</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="6"/>
         <v>12.0135135135135</v>
       </c>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="K23" s="6">
+        <f t="shared" si="7"/>
+        <v>13.3933333333333</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="8"/>
+        <v>12.4748235294118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="1">
         <v>32</v>
       </c>
@@ -4052,21 +4263,32 @@
         <f t="shared" si="2"/>
         <v>47.5</v>
       </c>
-      <c r="G24" s="5">
-        <f>(B24+D24)*1.4/8.5</f>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="4"/>
         <v>10.9529411764706</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="4"/>
-        <v>13.9054054054054</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="5"/>
+        <v>13.9054054054054</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="6"/>
         <v>15.0405405405405</v>
       </c>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="K24" s="6">
+        <f t="shared" si="7"/>
+        <v>17.7333333333333</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="8"/>
+        <v>15.3341176470588</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="1">
         <v>147</v>
       </c>
@@ -4074,7 +4296,7 @@
         <v>1.5</v>
       </c>
       <c r="D25" s="1">
-        <f>C25*37+16</f>
+        <f t="shared" si="0"/>
         <v>71.5</v>
       </c>
       <c r="E25" s="1">
@@ -4085,21 +4307,32 @@
         <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
-      <c r="G25" s="5">
-        <f>(B25+D25)*1.4/8.5</f>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" ref="H25:H30" si="9">(B25+D25)*1.4/8.5</f>
         <v>35.9882352941176</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="4"/>
-        <v>43.7972972972973</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="5"/>
+        <v>43.7972972972973</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="6"/>
         <v>47.2027027027027</v>
       </c>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="K25" s="6">
+        <f t="shared" si="7"/>
+        <v>60.4333333333333</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="8"/>
+        <v>50.3835294117646</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="1">
         <v>183</v>
       </c>
@@ -4107,7 +4340,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f>C26*37+16</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E26" s="1">
@@ -4118,21 +4351,32 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="G26" s="5">
-        <f>(B26+D26)*1.4/8.5</f>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="9"/>
         <v>44.9647058823529</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="4"/>
-        <v>54.6756756756757</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="5"/>
+        <v>54.6756756756757</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="6"/>
         <v>59.2162162162162</v>
       </c>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="K26" s="6">
+        <f t="shared" si="7"/>
+        <v>76.7666666666667</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="8"/>
+        <v>62.9505882352941</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="1">
         <v>210</v>
       </c>
@@ -4140,7 +4384,7 @@
         <v>2.5</v>
       </c>
       <c r="D27" s="1">
-        <f>C27*37+16</f>
+        <f t="shared" si="0"/>
         <v>108.5</v>
       </c>
       <c r="E27" s="1">
@@ -4151,31 +4395,357 @@
         <f t="shared" si="2"/>
         <v>157.5</v>
       </c>
-      <c r="G27" s="5">
-        <f>(B27+D27)*1.4/8.5</f>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="9"/>
         <v>52.4588235294118</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="4"/>
-        <v>63.8513513513513</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="5"/>
+        <v>63.8513513513513</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="6"/>
         <v>69.527027027027</v>
       </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="10:10">
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="10:10">
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="10:10">
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="10:10">
-      <c r="J31" s="10"/>
+      <c r="K27" s="6">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="8"/>
+        <v>73.4423529411765</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="1">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>45.6</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>54.4</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>64.4</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="9"/>
+        <v>18.2164705882353</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="5"/>
+        <v>22.5891891891892</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="6"/>
+        <v>24.4054054054054</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="7"/>
+        <v>30.1933333333333</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="8"/>
+        <v>25.5030588235294</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="1">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="9"/>
+        <v>21.4117647058824</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="5"/>
+        <v>26.4864864864865</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="6"/>
+        <v>28.7567567567568</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="7"/>
+        <v>36.1666666666667</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="8"/>
+        <v>29.9764705882354</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="1">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>60.4</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>71.6</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>91.6</v>
+      </c>
+      <c r="H30" s="5">
+        <f>(B30+D30)*1.4/8.4</f>
+        <v>24.2333333333333</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="5"/>
+        <v>29.627027027027</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="6"/>
+        <v>32.3513513513513</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="7"/>
+        <v>41.2066666666667</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="8"/>
+        <v>33.9266666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="1">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H31" s="5">
+        <f>(B31+D31)*1.4/8.4</f>
+        <v>15.5</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="5"/>
+        <v>19.4864864864865</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="6"/>
+        <v>21.7567567567568</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="7"/>
+        <v>27.5333333333333</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="8"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="1">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>60.4</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>71.6</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>91.6</v>
+      </c>
+      <c r="H32" s="5">
+        <f>(B32+D32)*1.4/8.4</f>
+        <v>18.4</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="5"/>
+        <v>23.0054054054054</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="6"/>
+        <v>25.7297297297297</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="7"/>
+        <v>33.04</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="8"/>
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="1">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>71.5</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>84.5</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>102.5</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="H33" s="5">
+        <f>(B33+D33)*1.4/8.4</f>
+        <v>21.9166666666667</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="5"/>
+        <v>27.3378378378378</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="6"/>
+        <v>30.7432432432432</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="7"/>
+        <v>40.1333333333333</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="8"/>
+        <v>30.6833333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12">
+      <c r="H34" s="5">
+        <v>19.99</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="8"/>
+        <v>27.986</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12">
+      <c r="H35" s="5">
+        <v>21.99</v>
+      </c>
+      <c r="L35" s="7">
+        <f>1.4*H35</f>
+        <v>30.786</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12">
+      <c r="H36" s="5">
+        <v>23.99</v>
+      </c>
+      <c r="L36" s="7">
+        <f>1.4*H36</f>
+        <v>33.586</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12">
+      <c r="H37" s="5">
+        <v>6.99</v>
+      </c>
+      <c r="L37" s="7">
+        <f>1.4*H37</f>
+        <v>9.786</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12">
+      <c r="H38" s="5">
+        <v>14.99</v>
+      </c>
+      <c r="L38" s="7">
+        <f>1.4*H38</f>
+        <v>20.986</v>
+      </c>
+    </row>
+    <row r="39" spans="8:12">
+      <c r="H39" s="5">
+        <v>17.99</v>
+      </c>
+      <c r="L39" s="7">
+        <f>1.4*H39</f>
+        <v>25.186</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12">
+      <c r="H40" s="5">
+        <v>20.99</v>
+      </c>
+      <c r="L40" s="7">
+        <f>1.4*H40</f>
+        <v>29.386</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4223,64 +4793,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4291,241 +4861,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13800" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="13200" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
   <si>
     <t>类型</t>
   </si>
@@ -807,6 +807,9 @@
   </si>
   <si>
     <t>三件套</t>
+  </si>
+  <si>
+    <t>国王三件套</t>
   </si>
   <si>
     <t>品名</t>
@@ -1099,10 +1102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
@@ -1132,9 +1135,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1144,24 +1194,6 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1179,21 +1211,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1205,48 +1247,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1302,7 +1305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,19 +1341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,19 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,59 +1437,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
       <bottom style="double">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1509,8 +1464,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,10 +1525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1534,7 +1537,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1543,128 +1546,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,9 +1684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2228,141 +2228,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2371,8 +2371,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2409,7 +2409,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2465,7 +2465,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2483,22 +2483,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2523,25 +2523,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2563,25 +2563,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="10"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="10"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="10"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2595,7 +2595,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2603,13 +2603,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2653,18 +2653,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2675,7 +2675,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -2684,7 +2684,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2702,7 +2702,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>95</v>
       </c>
@@ -2711,7 +2711,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -2722,7 +2722,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -2771,7 +2771,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -2846,178 +2846,178 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       <c r="B17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       <c r="B18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3053,29 +3053,29 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3 C8:C10">
@@ -3109,16 +3109,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E1" t="s">
@@ -3126,131 +3126,131 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -3259,7 +3259,7 @@
       <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
@@ -3267,14 +3267,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>192</v>
       </c>
       <c r="E13" t="s">
@@ -3282,14 +3282,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>195</v>
       </c>
       <c r="E14" t="s">
@@ -3297,14 +3297,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>198</v>
       </c>
       <c r="E15" t="s">
@@ -3326,10 +3326,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3341,8 +3341,8 @@
     <col min="9" max="9" width="12.625" style="6"/>
     <col min="10" max="10" width="10.875" style="6" customWidth="1"/>
     <col min="11" max="11" width="16" style="6"/>
-    <col min="12" max="12" width="17.125" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="8"/>
+    <col min="12" max="12" width="17.125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3379,7 +3379,7 @@
       <c r="K1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3414,7 +3414,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>236</v>
       </c>
@@ -3453,18 +3453,18 @@
         <v>7.33764705882353</v>
       </c>
       <c r="I6" s="6">
-        <f>(B6+E6)*1.4/7.4</f>
-        <v>9.35540540540541</v>
+        <f>(B6+E6)*1.4/7.2</f>
+        <v>9.61527777777778</v>
       </c>
       <c r="J6" s="6">
-        <f>(B6+F6)*1.4/7.4</f>
-        <v>9.69594594594595</v>
+        <f>(B6+F6)*1.4/7.2</f>
+        <v>9.96527777777778</v>
       </c>
       <c r="K6" s="6">
         <f>(B6+G6)*1.4/6</f>
         <v>10.08</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f>1.4*H6</f>
         <v>10.2727058823529</v>
       </c>
@@ -3496,23 +3496,23 @@
         <v>20.2</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ref="H7:H27" si="4">(B7+D7)*1.4/8.5</f>
+        <f t="shared" ref="H7:H43" si="4">(B7+D7)*1.4/8.5</f>
         <v>7.17294117647059</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" ref="I7:I33" si="5">(B7+E7)*1.4/7.4</f>
-        <v>9.16621621621622</v>
+        <f t="shared" ref="I7:I43" si="5">(B7+E7)*1.4/7.2</f>
+        <v>9.42083333333333</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" ref="J7:J33" si="6">(B7+F7)*1.4/7.4</f>
-        <v>9.50675675675676</v>
+        <f t="shared" ref="J7:J43" si="6">(B7+F7)*1.4/7.2</f>
+        <v>9.77083333333333</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ref="K7:K33" si="7">(B7+G7)*1.4/6</f>
         <v>9.84666666666667</v>
       </c>
-      <c r="L7" s="7">
-        <f t="shared" ref="L7:L34" si="8">1.4*H7</f>
+      <c r="L7" s="6">
+        <f t="shared" ref="L7:L40" si="8">1.4*H7</f>
         <v>10.0421176470588</v>
       </c>
     </row>
@@ -3548,17 +3548,17 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="5"/>
-        <v>9.54459459459459</v>
+        <v>9.80972222222222</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="6"/>
-        <v>9.88513513513513</v>
+        <v>10.1597222222222</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="7"/>
         <v>10.3133333333333</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="8"/>
         <v>10.5032941176471</v>
       </c>
@@ -3595,17 +3595,17 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="5"/>
-        <v>9.73378378378378</v>
+        <v>10.0041666666667</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="6"/>
-        <v>10.0743243243243</v>
+        <v>10.3541666666667</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="7"/>
         <v>10.5466666666667</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="8"/>
         <v>10.7338823529412</v>
       </c>
@@ -3642,17 +3642,17 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="5"/>
-        <v>11.6256756756757</v>
+        <v>11.9486111111111</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="6"/>
-        <v>11.9662162162162</v>
+        <v>12.2986111111111</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="7"/>
         <v>12.88</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="8"/>
         <v>13.0397647058823</v>
       </c>
@@ -3689,17 +3689,17 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="5"/>
-        <v>10.3013513513514</v>
+        <v>10.5875</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="6"/>
-        <v>10.6418918918919</v>
+        <v>10.9375</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="7"/>
         <v>11.2466666666667</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="8"/>
         <v>11.4256470588235</v>
       </c>
@@ -3736,19 +3736,19 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="5"/>
-        <v>10.7081081081081</v>
+        <v>11.0055555555556</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="6"/>
-        <v>11.1621621621622</v>
+        <v>11.4722222222222</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="7"/>
         <v>12.04</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f t="shared" si="8"/>
-        <v>11.8522352941177</v>
+        <v>11.8522352941176</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3783,19 +3783,19 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="5"/>
-        <v>18.0108108108108</v>
+        <v>18.5111111111111</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="6"/>
-        <v>18.9189189189189</v>
+        <v>19.4444444444444</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="7"/>
         <v>22.2133333333333</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="8"/>
-        <v>20.4762352941177</v>
+        <v>20.4762352941176</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3830,19 +3830,19 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="5"/>
-        <v>8.38108108108108</v>
+        <v>8.61388888888889</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="6"/>
-        <v>8.60810810810811</v>
+        <v>8.84722222222222</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="7"/>
         <v>8.58666666666667</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f t="shared" si="8"/>
-        <v>9.15435294117646</v>
+        <v>9.15435294117647</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3877,19 +3877,19 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="5"/>
-        <v>20.6216216216216</v>
+        <v>21.1944444444444</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="6"/>
-        <v>22.8918918918919</v>
+        <v>23.5277777777778</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="7"/>
         <v>28.9333333333333</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f t="shared" si="8"/>
-        <v>22.8282352941177</v>
+        <v>22.8282352941176</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -3921,19 +3921,19 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="5"/>
-        <v>20.8108108108108</v>
+        <v>21.3888888888889</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="6"/>
-        <v>23.0810810810811</v>
+        <v>23.7222222222222</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="7"/>
         <v>29.1666666666667</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <f t="shared" si="8"/>
-        <v>23.0588235294117</v>
+        <v>23.0588235294118</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -3965,17 +3965,17 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="5"/>
-        <v>23.9513513513513</v>
+        <v>24.6166666666667</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="6"/>
-        <v>26.6756756756757</v>
+        <v>27.4166666666667</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="7"/>
         <v>34.2066666666667</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f t="shared" si="8"/>
         <v>26.6098823529412</v>
       </c>
@@ -4009,17 +4009,17 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="5"/>
-        <v>18.9189189189189</v>
+        <v>19.4444444444444</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="6"/>
-        <v>21.1891891891892</v>
+        <v>21.7777777777778</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="7"/>
         <v>26.8333333333333</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="8"/>
         <v>20.7529411764706</v>
       </c>
@@ -4053,17 +4053,17 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="5"/>
-        <v>19.2972972972973</v>
+        <v>19.8333333333333</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="6"/>
-        <v>21.5675675675676</v>
+        <v>22.1666666666667</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="7"/>
         <v>27.3</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f t="shared" si="8"/>
         <v>21.2141176470588</v>
       </c>
@@ -4097,17 +4097,17 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="5"/>
-        <v>25.2567567567568</v>
+        <v>25.9583333333333</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="6"/>
-        <v>28.6621621621622</v>
+        <v>29.4583333333333</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="7"/>
         <v>37.5666666666667</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f t="shared" si="8"/>
         <v>27.7858823529412</v>
       </c>
@@ -4141,19 +4141,19 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="5"/>
-        <v>27.5837837837838</v>
+        <v>28.35</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="6"/>
-        <v>31.2162162162162</v>
+        <v>32.0833333333333</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="7"/>
         <v>41.02</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f t="shared" si="8"/>
-        <v>30.4837647058823</v>
+        <v>30.4837647058824</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -4185,17 +4185,17 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="5"/>
-        <v>10.3864864864865</v>
+        <v>10.675</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="6"/>
-        <v>11.0675675675676</v>
+        <v>11.375</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="7"/>
         <v>12.2266666666667</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="8"/>
         <v>11.3218823529412</v>
       </c>
@@ -4229,17 +4229,17 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="5"/>
-        <v>11.3324324324324</v>
+        <v>11.6472222222222</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="6"/>
-        <v>12.0135135135135</v>
+        <v>12.3472222222222</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="7"/>
         <v>13.3933333333333</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="8"/>
         <v>12.4748235294118</v>
       </c>
@@ -4273,17 +4273,17 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="5"/>
-        <v>13.9054054054054</v>
+        <v>14.2916666666667</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="6"/>
-        <v>15.0405405405405</v>
+        <v>15.4583333333333</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="7"/>
         <v>17.7333333333333</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <f t="shared" si="8"/>
         <v>15.3341176470588</v>
       </c>
@@ -4312,24 +4312,24 @@
         <v>112</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ref="H25:H30" si="9">(B25+D25)*1.4/8.5</f>
+        <f t="shared" si="4"/>
         <v>35.9882352941176</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="5"/>
-        <v>43.7972972972973</v>
+        <v>45.0138888888889</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="6"/>
-        <v>47.2027027027027</v>
+        <v>48.5138888888889</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="7"/>
         <v>60.4333333333333</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" si="8"/>
-        <v>50.3835294117646</v>
+        <v>50.3835294117647</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -4356,22 +4356,22 @@
         <v>146</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>44.9647058823529</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="5"/>
-        <v>54.6756756756757</v>
+        <v>56.1944444444444</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="6"/>
-        <v>59.2162162162162</v>
+        <v>60.8611111111111</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="7"/>
         <v>76.7666666666667</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f t="shared" si="8"/>
         <v>62.9505882352941</v>
       </c>
@@ -4400,22 +4400,22 @@
         <v>180</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>52.4588235294118</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="5"/>
-        <v>63.8513513513513</v>
+        <v>65.625</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="6"/>
-        <v>69.527027027027</v>
+        <v>71.4583333333333</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" si="8"/>
         <v>73.4423529411765</v>
       </c>
@@ -4444,22 +4444,22 @@
         <v>64.4</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>18.2164705882353</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="5"/>
-        <v>22.5891891891892</v>
+        <v>23.2166666666667</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="6"/>
-        <v>24.4054054054054</v>
+        <v>25.0833333333333</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="7"/>
         <v>30.1933333333333</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <f t="shared" si="8"/>
         <v>25.5030588235294</v>
       </c>
@@ -4488,24 +4488,24 @@
         <v>78</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>21.4117647058824</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="5"/>
-        <v>26.4864864864865</v>
+        <v>27.2222222222222</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="6"/>
-        <v>28.7567567567568</v>
+        <v>29.5555555555556</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="7"/>
         <v>36.1666666666667</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <f t="shared" si="8"/>
-        <v>29.9764705882354</v>
+        <v>29.9764705882353</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -4532,24 +4532,24 @@
         <v>91.6</v>
       </c>
       <c r="H30" s="5">
-        <f>(B30+D30)*1.4/8.4</f>
-        <v>24.2333333333333</v>
+        <f t="shared" si="4"/>
+        <v>23.9482352941176</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="5"/>
-        <v>29.627027027027</v>
+        <v>30.45</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="6"/>
-        <v>32.3513513513513</v>
+        <v>33.25</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="7"/>
         <v>41.2066666666667</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <f t="shared" si="8"/>
-        <v>33.9266666666666</v>
+        <v>33.5275294117647</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -4576,24 +4576,24 @@
         <v>78</v>
       </c>
       <c r="H31" s="5">
-        <f>(B31+D31)*1.4/8.4</f>
-        <v>15.5</v>
+        <f t="shared" si="4"/>
+        <v>15.3176470588235</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="5"/>
-        <v>19.4864864864865</v>
+        <v>20.0277777777778</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" si="6"/>
-        <v>21.7567567567568</v>
+        <v>22.3611111111111</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="7"/>
         <v>27.5333333333333</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f t="shared" si="8"/>
-        <v>21.7</v>
+        <v>21.4447058823529</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -4620,24 +4620,24 @@
         <v>91.6</v>
       </c>
       <c r="H32" s="5">
-        <f>(B32+D32)*1.4/8.4</f>
-        <v>18.4</v>
+        <f t="shared" si="4"/>
+        <v>18.1835294117647</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="5"/>
-        <v>23.0054054054054</v>
+        <v>23.6444444444444</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="6"/>
-        <v>25.7297297297297</v>
+        <v>26.4444444444444</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="7"/>
         <v>33.04</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f t="shared" si="8"/>
-        <v>25.76</v>
+        <v>25.4569411764706</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -4664,87 +4664,373 @@
         <v>112</v>
       </c>
       <c r="H33" s="5">
-        <f>(B33+D33)*1.4/8.4</f>
-        <v>21.9166666666667</v>
+        <f t="shared" si="4"/>
+        <v>21.6588235294118</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="5"/>
-        <v>27.3378378378378</v>
+        <v>28.0972222222222</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="6"/>
-        <v>30.7432432432432</v>
+        <v>31.5972222222222</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="7"/>
         <v>40.1333333333333</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <f t="shared" si="8"/>
-        <v>30.6833333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="8:12">
+        <v>30.3223529411765</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12">
+      <c r="D34" s="1">
+        <f t="shared" ref="D34:D43" si="9">C34*37+16</f>
+        <v>16</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ref="E34:E43" si="10">C34*43+20</f>
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F43" si="11">C34*55+20</f>
+        <v>20</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G43" si="12">C34*68+10</f>
+        <v>10</v>
+      </c>
       <c r="H34" s="5">
-        <v>19.99</v>
-      </c>
-      <c r="L34" s="7">
+        <f t="shared" si="4"/>
+        <v>2.63529411764706</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="5"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="6"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="L34" s="6">
         <f t="shared" si="8"/>
-        <v>27.986</v>
-      </c>
-    </row>
-    <row r="35" spans="8:12">
+        <v>3.68941176470588</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12">
+      <c r="D35" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="H35" s="5">
-        <v>21.99</v>
-      </c>
-      <c r="L35" s="7">
-        <f>1.4*H35</f>
-        <v>30.786</v>
-      </c>
-    </row>
-    <row r="36" spans="8:12">
+        <f t="shared" si="4"/>
+        <v>2.63529411764706</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="5"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="6"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="8"/>
+        <v>3.68941176470588</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12">
+      <c r="D36" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="H36" s="5">
-        <v>23.99</v>
-      </c>
-      <c r="L36" s="7">
-        <f>1.4*H36</f>
-        <v>33.586</v>
-      </c>
-    </row>
-    <row r="37" spans="8:12">
+        <f t="shared" si="4"/>
+        <v>2.63529411764706</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="5"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="6"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="8"/>
+        <v>3.68941176470588</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12">
+      <c r="D37" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="H37" s="5">
-        <v>6.99</v>
-      </c>
-      <c r="L37" s="7">
-        <f>1.4*H37</f>
-        <v>9.786</v>
-      </c>
-    </row>
-    <row r="38" spans="8:12">
+        <f t="shared" si="4"/>
+        <v>2.63529411764706</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="5"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="6"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="8"/>
+        <v>3.68941176470588</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12">
+      <c r="D38" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="H38" s="5">
-        <v>14.99</v>
-      </c>
-      <c r="L38" s="7">
-        <f>1.4*H38</f>
-        <v>20.986</v>
-      </c>
-    </row>
-    <row r="39" spans="8:12">
+        <f t="shared" si="4"/>
+        <v>2.63529411764706</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="5"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="6"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="8"/>
+        <v>3.68941176470588</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12">
+      <c r="D39" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="H39" s="5">
-        <v>17.99</v>
-      </c>
-      <c r="L39" s="7">
-        <f>1.4*H39</f>
-        <v>25.186</v>
-      </c>
-    </row>
-    <row r="40" spans="8:12">
+        <f t="shared" si="4"/>
+        <v>2.63529411764706</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="5"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="6"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="8"/>
+        <v>3.68941176470588</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12">
+      <c r="D40" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="H40" s="5">
-        <v>20.99</v>
-      </c>
-      <c r="L40" s="7">
-        <f>1.4*H40</f>
-        <v>29.386</v>
+        <f t="shared" si="4"/>
+        <v>2.63529411764706</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="5"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="6"/>
+        <v>3.88888888888889</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="8"/>
+        <v>3.68941176470588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="1">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="9"/>
+        <v>45.6</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="10"/>
+        <v>54.4</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="12"/>
+        <v>64.4</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="4"/>
+        <v>18.5458823529412</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="5"/>
+        <v>23.6055555555556</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="6"/>
+        <v>25.4722222222222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="1">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="9"/>
+        <v>56.7</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="10"/>
+        <v>67.3</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="11"/>
+        <v>80.5</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="12"/>
+        <v>84.8</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="4"/>
+        <v>22.3505882352941</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="5"/>
+        <v>28.4472222222222</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="6"/>
+        <v>31.0138888888889</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="1">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="9"/>
+        <v>64.1</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="10"/>
+        <v>75.9</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="11"/>
+        <v>91.5</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="12"/>
+        <v>98.4</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="4"/>
+        <v>24.8870588235294</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="5"/>
+        <v>31.675</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="6"/>
+        <v>34.7083333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4793,64 +5079,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4861,241 +5147,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
   <si>
     <t>类型</t>
   </si>
@@ -810,6 +810,27 @@
   </si>
   <si>
     <t>国王三件套</t>
+  </si>
+  <si>
+    <t>红狼/夕阳麋鹿三件套</t>
+  </si>
+  <si>
+    <t>结球枕头</t>
+  </si>
+  <si>
+    <t>纯色床笠full</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>king2</t>
+  </si>
+  <si>
+    <t>鲨鱼3件套</t>
   </si>
   <si>
     <t>品名</t>
@@ -1102,11 +1123,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1135,16 +1156,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1157,14 +1194,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1176,21 +1221,15 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1203,33 +1242,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1242,14 +1263,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1299,25 +1320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,25 +1368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,6 +1441,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1435,13 +1465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="23"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,30 +1504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1517,6 +1527,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1525,10 +1546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1537,137 +1558,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,6 +1704,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1692,11 +1717,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2228,141 +2265,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="14"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2371,8 +2408,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2380,7 +2417,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2391,7 +2428,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="14"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2400,7 +2437,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="14"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2409,7 +2446,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="14"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2418,7 +2455,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="14"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2427,7 +2464,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="14"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2473,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2447,7 +2484,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="14"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2493,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="14"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2465,7 +2502,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="14"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2474,7 +2511,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="14"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2483,22 +2520,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="14"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="14"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="14"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2515,7 +2552,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2523,25 +2560,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="14"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="14"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2592,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2563,25 +2600,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="14"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="14"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="14"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="14"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2595,7 +2632,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2603,13 +2640,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="14"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="14"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2653,18 +2690,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2675,7 +2712,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -2684,7 +2721,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2693,7 +2730,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2702,7 +2739,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>95</v>
       </c>
@@ -2711,7 +2748,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -2722,7 +2759,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
@@ -2731,7 +2768,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2740,7 +2777,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2760,7 +2797,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -2771,7 +2808,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
@@ -2780,7 +2817,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -2789,7 +2826,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
@@ -2800,7 +2837,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -2809,7 +2846,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="14"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -2846,178 +2883,178 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3028,7 +3065,7 @@
       <c r="B17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3039,7 +3076,7 @@
       <c r="B18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="25" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3053,29 +3090,29 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3 C8:C10">
@@ -3109,16 +3146,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>181</v>
       </c>
       <c r="E1" t="s">
@@ -3126,131 +3163,131 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -3259,7 +3296,7 @@
       <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
@@ -3267,14 +3304,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="14" t="s">
         <v>192</v>
       </c>
       <c r="E13" t="s">
@@ -3282,14 +3319,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>195</v>
       </c>
       <c r="E14" t="s">
@@ -3297,14 +3334,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
+      <c r="A15" s="14"/>
       <c r="B15" t="s">
         <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E15" t="s">
@@ -3326,10 +3363,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3337,49 +3376,49 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="6"/>
-    <col min="10" max="10" width="10.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16" style="6"/>
-    <col min="12" max="12" width="17.125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="8" max="8" width="14.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="7"/>
+    <col min="10" max="10" width="10.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16" style="7"/>
+    <col min="12" max="12" width="17.125" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:12">
+      <c r="A1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="13" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3403,7 +3442,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3414,7 +3453,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>236</v>
       </c>
@@ -3448,25 +3487,25 @@
         <f>C6*68+10</f>
         <v>20.2</v>
       </c>
-      <c r="H6" s="5">
-        <f>(B6+D6)*1.4/8.5</f>
-        <v>7.33764705882353</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="6">
+        <f>(B6+D6)*1.4/8.2</f>
+        <v>7.60609756097561</v>
+      </c>
+      <c r="I6" s="7">
         <f>(B6+E6)*1.4/7.2</f>
         <v>9.61527777777778</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <f>(B6+F6)*1.4/7.2</f>
         <v>9.96527777777778</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <f>(B6+G6)*1.4/6</f>
         <v>10.08</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <f>1.4*H6</f>
-        <v>10.2727058823529</v>
+        <v>10.6485365853659</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3495,25 +3534,25 @@
         <f t="shared" ref="G7:G33" si="3">C7*68+10</f>
         <v>20.2</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" ref="H7:H43" si="4">(B7+D7)*1.4/8.5</f>
-        <v>7.17294117647059</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" ref="I7:I43" si="5">(B7+E7)*1.4/7.2</f>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H57" si="4">(B7+D7)*1.4/8.2</f>
+        <v>7.43536585365854</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" ref="I7:I57" si="5">(B7+E7)*1.4/7.2</f>
         <v>9.42083333333333</v>
       </c>
-      <c r="J7" s="6">
-        <f t="shared" ref="J7:J43" si="6">(B7+F7)*1.4/7.2</f>
+      <c r="J7" s="7">
+        <f t="shared" ref="J7:J57" si="6">(B7+F7)*1.4/7.2</f>
         <v>9.77083333333333</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" ref="K7:K33" si="7">(B7+G7)*1.4/6</f>
+      <c r="K7" s="7">
+        <f t="shared" ref="K7:K57" si="7">(B7+G7)*1.4/6</f>
         <v>9.84666666666667</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7">
         <f t="shared" ref="L7:L40" si="8">1.4*H7</f>
-        <v>10.0421176470588</v>
+        <v>10.409512195122</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3542,25 +3581,25 @@
         <f t="shared" si="3"/>
         <v>20.2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f t="shared" si="4"/>
-        <v>7.50235294117647</v>
-      </c>
-      <c r="I8" s="6">
+        <v>7.77682926829268</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="5"/>
         <v>9.80972222222222</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <f t="shared" si="6"/>
         <v>10.1597222222222</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <f t="shared" si="7"/>
         <v>10.3133333333333</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="7">
         <f t="shared" si="8"/>
-        <v>10.5032941176471</v>
+        <v>10.8875609756098</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3589,25 +3628,25 @@
         <f t="shared" si="3"/>
         <v>20.2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <f t="shared" si="4"/>
-        <v>7.66705882352941</v>
-      </c>
-      <c r="I9" s="6">
+        <v>7.94756097560975</v>
+      </c>
+      <c r="I9" s="7">
         <f t="shared" si="5"/>
         <v>10.0041666666667</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <f t="shared" si="6"/>
         <v>10.3541666666667</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <f t="shared" si="7"/>
         <v>10.5466666666667</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <f t="shared" si="8"/>
-        <v>10.7338823529412</v>
+        <v>11.1265853658537</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3636,25 +3675,25 @@
         <f t="shared" si="3"/>
         <v>20.2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <f t="shared" si="4"/>
-        <v>9.31411764705882</v>
-      </c>
-      <c r="I10" s="6">
+        <v>9.65487804878049</v>
+      </c>
+      <c r="I10" s="7">
         <f t="shared" si="5"/>
         <v>11.9486111111111</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <f t="shared" si="6"/>
         <v>12.2986111111111</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <f t="shared" si="7"/>
         <v>12.88</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="7">
         <f t="shared" si="8"/>
-        <v>13.0397647058823</v>
+        <v>13.5168292682927</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3683,25 +3722,25 @@
         <f t="shared" si="3"/>
         <v>20.2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <f t="shared" si="4"/>
-        <v>8.16117647058823</v>
-      </c>
-      <c r="I11" s="6">
+        <v>8.45975609756097</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" si="5"/>
         <v>10.5875</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <f t="shared" si="6"/>
         <v>10.9375</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <f t="shared" si="7"/>
         <v>11.2466666666667</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <f t="shared" si="8"/>
-        <v>11.4256470588235</v>
+        <v>11.8436585365854</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3730,25 +3769,25 @@
         <f t="shared" si="3"/>
         <v>23.6</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <f t="shared" si="4"/>
-        <v>8.46588235294118</v>
-      </c>
-      <c r="I12" s="6">
+        <v>8.77560975609756</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="5"/>
         <v>11.0055555555556</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="7">
         <f t="shared" si="6"/>
         <v>11.4722222222222</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <f t="shared" si="7"/>
         <v>12.04</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <f t="shared" si="8"/>
-        <v>11.8522352941176</v>
+        <v>12.2858536585366</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3777,25 +3816,25 @@
         <f t="shared" si="3"/>
         <v>37.2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <f t="shared" si="4"/>
-        <v>14.6258823529412</v>
-      </c>
-      <c r="I13" s="6">
+        <v>15.1609756097561</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="5"/>
         <v>18.5111111111111</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <f t="shared" si="6"/>
         <v>19.4444444444444</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <f t="shared" si="7"/>
         <v>22.2133333333333</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <f t="shared" si="8"/>
-        <v>20.4762352941176</v>
+        <v>21.2253658536585</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3824,25 +3863,25 @@
         <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <f t="shared" si="4"/>
-        <v>6.53882352941176</v>
-      </c>
-      <c r="I14" s="6">
+        <v>6.77804878048781</v>
+      </c>
+      <c r="I14" s="7">
         <f t="shared" si="5"/>
         <v>8.61388888888889</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="7">
         <f t="shared" si="6"/>
         <v>8.84722222222222</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <f t="shared" si="7"/>
         <v>8.58666666666667</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <f t="shared" si="8"/>
-        <v>9.15435294117647</v>
+        <v>9.48926829268293</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3871,25 +3910,25 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <f t="shared" si="4"/>
-        <v>16.3058823529412</v>
-      </c>
-      <c r="I15" s="6">
+        <v>16.9024390243902</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="5"/>
         <v>21.1944444444444</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="7">
         <f t="shared" si="6"/>
         <v>23.5277777777778</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="7">
         <f t="shared" si="7"/>
         <v>28.9333333333333</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="7">
         <f t="shared" si="8"/>
-        <v>22.8282352941176</v>
+        <v>23.6634146341463</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -3915,25 +3954,25 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <f t="shared" si="4"/>
-        <v>16.4705882352941</v>
-      </c>
-      <c r="I16" s="6">
+        <v>17.0731707317073</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="5"/>
         <v>21.3888888888889</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="7">
         <f t="shared" si="6"/>
         <v>23.7222222222222</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7">
         <f t="shared" si="7"/>
         <v>29.1666666666667</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="7">
         <f t="shared" si="8"/>
-        <v>23.0588235294118</v>
+        <v>23.9024390243902</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -3959,25 +3998,25 @@
         <f t="shared" si="3"/>
         <v>91.6</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <f t="shared" si="4"/>
-        <v>19.0070588235294</v>
-      </c>
-      <c r="I17" s="6">
+        <v>19.7024390243902</v>
+      </c>
+      <c r="I17" s="7">
         <f t="shared" si="5"/>
         <v>24.6166666666667</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="7">
         <f t="shared" si="6"/>
         <v>27.4166666666667</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <f t="shared" si="7"/>
         <v>34.2066666666667</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="7">
         <f t="shared" si="8"/>
-        <v>26.6098823529412</v>
+        <v>27.5834146341463</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -4003,25 +4042,25 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <f t="shared" si="4"/>
-        <v>14.8235294117647</v>
-      </c>
-      <c r="I18" s="6">
+        <v>15.3658536585366</v>
+      </c>
+      <c r="I18" s="7">
         <f t="shared" si="5"/>
         <v>19.4444444444444</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="7">
         <f t="shared" si="6"/>
         <v>21.7777777777778</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <f t="shared" si="7"/>
         <v>26.8333333333333</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="7">
         <f t="shared" si="8"/>
-        <v>20.7529411764706</v>
+        <v>21.5121951219512</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -4047,25 +4086,25 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <f t="shared" si="4"/>
-        <v>15.1529411764706</v>
-      </c>
-      <c r="I19" s="6">
+        <v>15.7073170731707</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" si="5"/>
         <v>19.8333333333333</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="7">
         <f t="shared" si="6"/>
         <v>22.1666666666667</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <f t="shared" si="7"/>
         <v>27.3</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="7">
         <f t="shared" si="8"/>
-        <v>21.2141176470588</v>
+        <v>21.990243902439</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -4091,25 +4130,25 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <f t="shared" si="4"/>
-        <v>19.8470588235294</v>
-      </c>
-      <c r="I20" s="6">
+        <v>20.5731707317073</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="5"/>
         <v>25.9583333333333</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="7">
         <f t="shared" si="6"/>
         <v>29.4583333333333</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="7">
         <f t="shared" si="7"/>
         <v>37.5666666666667</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="7">
         <f t="shared" si="8"/>
-        <v>27.7858823529412</v>
+        <v>28.8024390243902</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -4135,25 +4174,25 @@
         <f t="shared" si="3"/>
         <v>118.8</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <f t="shared" si="4"/>
-        <v>21.7741176470588</v>
-      </c>
-      <c r="I21" s="6">
+        <v>22.5707317073171</v>
+      </c>
+      <c r="I21" s="7">
         <f t="shared" si="5"/>
         <v>28.35</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="7">
         <f t="shared" si="6"/>
         <v>32.0833333333333</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <f t="shared" si="7"/>
         <v>41.02</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
         <f t="shared" si="8"/>
-        <v>30.4837647058824</v>
+        <v>31.5990243902439</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -4179,25 +4218,25 @@
         <f t="shared" si="3"/>
         <v>30.4</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <f t="shared" si="4"/>
-        <v>8.08705882352941</v>
-      </c>
-      <c r="I22" s="6">
+        <v>8.38292682926829</v>
+      </c>
+      <c r="I22" s="7">
         <f t="shared" si="5"/>
         <v>10.675</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="7">
         <f t="shared" si="6"/>
         <v>11.375</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="7">
         <f t="shared" si="7"/>
         <v>12.2266666666667</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="7">
         <f t="shared" si="8"/>
-        <v>11.3218823529412</v>
+        <v>11.7360975609756</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -4223,25 +4262,25 @@
         <f t="shared" si="3"/>
         <v>30.4</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <f t="shared" si="4"/>
-        <v>8.91058823529412</v>
-      </c>
-      <c r="I23" s="6">
+        <v>9.23658536585366</v>
+      </c>
+      <c r="I23" s="7">
         <f t="shared" si="5"/>
         <v>11.6472222222222</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="7">
         <f t="shared" si="6"/>
         <v>12.3472222222222</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="7">
         <f t="shared" si="7"/>
         <v>13.3933333333333</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="7">
         <f t="shared" si="8"/>
-        <v>12.4748235294118</v>
+        <v>12.9312195121951</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -4267,25 +4306,25 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <f t="shared" si="4"/>
-        <v>10.9529411764706</v>
-      </c>
-      <c r="I24" s="6">
+        <v>11.3536585365854</v>
+      </c>
+      <c r="I24" s="7">
         <f t="shared" si="5"/>
         <v>14.2916666666667</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="7">
         <f t="shared" si="6"/>
         <v>15.4583333333333</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="7">
         <f t="shared" si="7"/>
         <v>17.7333333333333</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="7">
         <f t="shared" si="8"/>
-        <v>15.3341176470588</v>
+        <v>15.8951219512195</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -4311,25 +4350,25 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <f t="shared" si="4"/>
-        <v>35.9882352941176</v>
-      </c>
-      <c r="I25" s="6">
+        <v>37.3048780487805</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="5"/>
         <v>45.0138888888889</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="7">
         <f t="shared" si="6"/>
         <v>48.5138888888889</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="7">
         <f t="shared" si="7"/>
         <v>60.4333333333333</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="7">
         <f t="shared" si="8"/>
-        <v>50.3835294117647</v>
+        <v>52.2268292682927</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -4355,25 +4394,25 @@
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <f t="shared" si="4"/>
-        <v>44.9647058823529</v>
-      </c>
-      <c r="I26" s="6">
+        <v>46.609756097561</v>
+      </c>
+      <c r="I26" s="7">
         <f t="shared" si="5"/>
         <v>56.1944444444444</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="7">
         <f t="shared" si="6"/>
         <v>60.8611111111111</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="7">
         <f t="shared" si="7"/>
         <v>76.7666666666667</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="7">
         <f t="shared" si="8"/>
-        <v>62.9505882352941</v>
+        <v>65.2536585365854</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -4399,25 +4438,25 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <f t="shared" si="4"/>
-        <v>52.4588235294118</v>
-      </c>
-      <c r="I27" s="6">
+        <v>54.3780487804878</v>
+      </c>
+      <c r="I27" s="7">
         <f t="shared" si="5"/>
         <v>65.625</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="7">
         <f t="shared" si="6"/>
         <v>71.4583333333333</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="7">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="7">
         <f t="shared" si="8"/>
-        <v>73.4423529411765</v>
+        <v>76.1292682926829</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -4443,25 +4482,25 @@
         <f t="shared" si="3"/>
         <v>64.4</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="6">
         <f t="shared" si="4"/>
-        <v>18.2164705882353</v>
-      </c>
-      <c r="I28" s="6">
+        <v>18.8829268292683</v>
+      </c>
+      <c r="I28" s="7">
         <f t="shared" si="5"/>
         <v>23.2166666666667</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="7">
         <f t="shared" si="6"/>
         <v>25.0833333333333</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="7">
         <f t="shared" si="7"/>
         <v>30.1933333333333</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="7">
         <f t="shared" si="8"/>
-        <v>25.5030588235294</v>
+        <v>26.4360975609756</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -4487,25 +4526,25 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <f t="shared" si="4"/>
-        <v>21.4117647058824</v>
-      </c>
-      <c r="I29" s="6">
+        <v>22.1951219512195</v>
+      </c>
+      <c r="I29" s="7">
         <f t="shared" si="5"/>
         <v>27.2222222222222</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="7">
         <f t="shared" si="6"/>
         <v>29.5555555555556</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="7">
         <f t="shared" si="7"/>
         <v>36.1666666666667</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="7">
         <f t="shared" si="8"/>
-        <v>29.9764705882353</v>
+        <v>31.0731707317073</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -4531,25 +4570,25 @@
         <f t="shared" si="3"/>
         <v>91.6</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <f t="shared" si="4"/>
-        <v>23.9482352941176</v>
-      </c>
-      <c r="I30" s="6">
+        <v>24.8243902439024</v>
+      </c>
+      <c r="I30" s="7">
         <f t="shared" si="5"/>
         <v>30.45</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="7">
         <f t="shared" si="6"/>
         <v>33.25</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="7">
         <f t="shared" si="7"/>
         <v>41.2066666666667</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="7">
         <f t="shared" si="8"/>
-        <v>33.5275294117647</v>
+        <v>34.7541463414634</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -4575,25 +4614,25 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <f t="shared" si="4"/>
-        <v>15.3176470588235</v>
-      </c>
-      <c r="I31" s="6">
+        <v>15.8780487804878</v>
+      </c>
+      <c r="I31" s="7">
         <f t="shared" si="5"/>
         <v>20.0277777777778</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="7">
         <f t="shared" si="6"/>
         <v>22.3611111111111</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="7">
         <f t="shared" si="7"/>
         <v>27.5333333333333</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="7">
         <f t="shared" si="8"/>
-        <v>21.4447058823529</v>
+        <v>22.2292682926829</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -4619,25 +4658,25 @@
         <f t="shared" si="3"/>
         <v>91.6</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="6">
         <f t="shared" si="4"/>
-        <v>18.1835294117647</v>
-      </c>
-      <c r="I32" s="6">
+        <v>18.8487804878049</v>
+      </c>
+      <c r="I32" s="7">
         <f t="shared" si="5"/>
         <v>23.6444444444444</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="7">
         <f t="shared" si="6"/>
         <v>26.4444444444444</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="7">
         <f t="shared" si="7"/>
         <v>33.04</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="7">
         <f t="shared" si="8"/>
-        <v>25.4569411764706</v>
+        <v>26.3882926829268</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -4663,59 +4702,63 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="6">
         <f t="shared" si="4"/>
-        <v>21.6588235294118</v>
-      </c>
-      <c r="I33" s="6">
+        <v>22.4512195121951</v>
+      </c>
+      <c r="I33" s="7">
         <f t="shared" si="5"/>
         <v>28.0972222222222</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="7">
         <f t="shared" si="6"/>
         <v>31.5972222222222</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="7">
         <f t="shared" si="7"/>
         <v>40.1333333333333</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="7">
         <f t="shared" si="8"/>
-        <v>30.3223529411765</v>
+        <v>31.4317073170732</v>
       </c>
     </row>
     <row r="34" spans="4:12">
       <c r="D34" s="1">
-        <f t="shared" ref="D34:D43" si="9">C34*37+16</f>
+        <f t="shared" ref="D34:D57" si="9">C34*37+16</f>
         <v>16</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E43" si="10">C34*43+20</f>
+        <f t="shared" ref="E34:E57" si="10">C34*43+20</f>
         <v>20</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F43" si="11">C34*55+20</f>
+        <f t="shared" ref="F34:F57" si="11">C34*55+20</f>
         <v>20</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ref="G34:G43" si="12">C34*68+10</f>
+        <f t="shared" ref="G34:G57" si="12">C34*68+10</f>
         <v>10</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="6">
         <f t="shared" si="4"/>
-        <v>2.63529411764706</v>
-      </c>
-      <c r="I34" s="6">
+        <v>2.73170731707317</v>
+      </c>
+      <c r="I34" s="7">
         <f t="shared" si="5"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="7">
         <f t="shared" si="6"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="L34" s="6">
+      <c r="K34" s="7">
+        <f t="shared" si="7"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="L34" s="7">
         <f t="shared" si="8"/>
-        <v>3.68941176470588</v>
+        <v>3.82439024390244</v>
       </c>
     </row>
     <row r="35" spans="4:12">
@@ -4735,21 +4778,25 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <f t="shared" si="4"/>
-        <v>2.63529411764706</v>
-      </c>
-      <c r="I35" s="6">
+        <v>2.73170731707317</v>
+      </c>
+      <c r="I35" s="7">
         <f t="shared" si="5"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="7">
         <f t="shared" si="6"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="L35" s="6">
+      <c r="K35" s="7">
+        <f t="shared" si="7"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="L35" s="7">
         <f t="shared" si="8"/>
-        <v>3.68941176470588</v>
+        <v>3.82439024390244</v>
       </c>
     </row>
     <row r="36" spans="4:12">
@@ -4769,21 +4816,25 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="6">
         <f t="shared" si="4"/>
-        <v>2.63529411764706</v>
-      </c>
-      <c r="I36" s="6">
+        <v>2.73170731707317</v>
+      </c>
+      <c r="I36" s="7">
         <f t="shared" si="5"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="7">
         <f t="shared" si="6"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="L36" s="6">
+      <c r="K36" s="7">
+        <f t="shared" si="7"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="L36" s="7">
         <f t="shared" si="8"/>
-        <v>3.68941176470588</v>
+        <v>3.82439024390244</v>
       </c>
     </row>
     <row r="37" spans="4:12">
@@ -4803,21 +4854,25 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <f t="shared" si="4"/>
-        <v>2.63529411764706</v>
-      </c>
-      <c r="I37" s="6">
+        <v>2.73170731707317</v>
+      </c>
+      <c r="I37" s="7">
         <f t="shared" si="5"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="7">
         <f t="shared" si="6"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="L37" s="6">
+      <c r="K37" s="7">
+        <f t="shared" si="7"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="L37" s="7">
         <f t="shared" si="8"/>
-        <v>3.68941176470588</v>
+        <v>3.82439024390244</v>
       </c>
     </row>
     <row r="38" spans="4:12">
@@ -4837,21 +4892,25 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="6">
         <f t="shared" si="4"/>
-        <v>2.63529411764706</v>
-      </c>
-      <c r="I38" s="6">
+        <v>2.73170731707317</v>
+      </c>
+      <c r="I38" s="7">
         <f t="shared" si="5"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="7">
         <f t="shared" si="6"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="L38" s="6">
+      <c r="K38" s="7">
+        <f t="shared" si="7"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="L38" s="7">
         <f t="shared" si="8"/>
-        <v>3.68941176470588</v>
+        <v>3.82439024390244</v>
       </c>
     </row>
     <row r="39" spans="4:12">
@@ -4871,21 +4930,25 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <f t="shared" si="4"/>
-        <v>2.63529411764706</v>
-      </c>
-      <c r="I39" s="6">
+        <v>2.73170731707317</v>
+      </c>
+      <c r="I39" s="7">
         <f t="shared" si="5"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="7">
         <f t="shared" si="6"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="L39" s="6">
+      <c r="K39" s="7">
+        <f t="shared" si="7"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="L39" s="7">
         <f t="shared" si="8"/>
-        <v>3.68941176470588</v>
+        <v>3.82439024390244</v>
       </c>
     </row>
     <row r="40" spans="4:12">
@@ -4905,24 +4968,28 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="6">
         <f t="shared" si="4"/>
-        <v>2.63529411764706</v>
-      </c>
-      <c r="I40" s="6">
+        <v>2.73170731707317</v>
+      </c>
+      <c r="I40" s="7">
         <f t="shared" si="5"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="7">
         <f t="shared" si="6"/>
         <v>3.88888888888889</v>
       </c>
-      <c r="L40" s="6">
+      <c r="K40" s="7">
+        <f t="shared" si="7"/>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="L40" s="7">
         <f t="shared" si="8"/>
-        <v>3.68941176470588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>3.82439024390244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>250</v>
       </c>
@@ -4948,20 +5015,24 @@
         <f t="shared" si="12"/>
         <v>64.4</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="6">
         <f t="shared" si="4"/>
-        <v>18.5458823529412</v>
-      </c>
-      <c r="I41" s="6">
+        <v>19.2243902439024</v>
+      </c>
+      <c r="I41" s="7">
         <f t="shared" si="5"/>
         <v>23.6055555555556</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="7">
         <f t="shared" si="6"/>
         <v>25.4722222222222</v>
       </c>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="K41" s="7">
+        <f t="shared" si="7"/>
+        <v>30.66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" s="1">
         <v>79</v>
       </c>
@@ -4984,20 +5055,24 @@
         <f t="shared" si="12"/>
         <v>84.8</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="6">
         <f t="shared" si="4"/>
-        <v>22.3505882352941</v>
-      </c>
-      <c r="I42" s="6">
+        <v>23.1682926829268</v>
+      </c>
+      <c r="I42" s="7">
         <f t="shared" si="5"/>
         <v>28.4472222222222</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="7">
         <f t="shared" si="6"/>
         <v>31.0138888888889</v>
       </c>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="K42" s="7">
+        <f t="shared" si="7"/>
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43" s="1">
         <v>87</v>
       </c>
@@ -5020,17 +5095,654 @@
         <f t="shared" si="12"/>
         <v>98.4</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <f t="shared" si="4"/>
-        <v>24.8870588235294</v>
-      </c>
-      <c r="I43" s="6">
+        <v>25.7975609756098</v>
+      </c>
+      <c r="I43" s="7">
         <f t="shared" si="5"/>
         <v>31.675</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="7">
         <f t="shared" si="6"/>
         <v>34.7083333333333</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="7"/>
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="1">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="9"/>
+        <v>45.6</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="10"/>
+        <v>54.4</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="12"/>
+        <v>64.4</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="4"/>
+        <v>17.6878048780488</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="5"/>
+        <v>21.8555555555556</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="6"/>
+        <v>23.7222222222222</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="7"/>
+        <v>28.56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="1">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="9"/>
+        <v>56.7</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="10"/>
+        <v>67.3</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="11"/>
+        <v>80.5</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="12"/>
+        <v>84.8</v>
+      </c>
+      <c r="H45" s="6">
+        <f t="shared" si="4"/>
+        <v>21.6317073170732</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="5"/>
+        <v>26.6972222222222</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="6"/>
+        <v>29.2638888888889</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="7"/>
+        <v>36.12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="1">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="9"/>
+        <v>64.1</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="10"/>
+        <v>75.9</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="11"/>
+        <v>91.5</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="12"/>
+        <v>98.4</v>
+      </c>
+      <c r="H46" s="6">
+        <f t="shared" si="4"/>
+        <v>23.4073170731707</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="5"/>
+        <v>28.9527777777778</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="6"/>
+        <v>31.9861111111111</v>
+      </c>
+      <c r="K46" s="7">
+        <f t="shared" si="7"/>
+        <v>39.9933333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" s="1">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="9"/>
+        <v>27.1</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="10"/>
+        <v>32.9</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="11"/>
+        <v>36.5</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="12"/>
+        <v>30.4</v>
+      </c>
+      <c r="H47" s="6">
+        <f t="shared" si="4"/>
+        <v>9.06585365853659</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="5"/>
+        <v>11.4527777777778</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="6"/>
+        <v>12.1527777777778</v>
+      </c>
+      <c r="K47" s="7">
+        <f t="shared" si="7"/>
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="1">
+        <v>32</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="9"/>
+        <v>38.2</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="10"/>
+        <v>45.8</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="12"/>
+        <v>50.8</v>
+      </c>
+      <c r="H48" s="6">
+        <f t="shared" si="4"/>
+        <v>11.9853658536585</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="5"/>
+        <v>15.1277777777778</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="6"/>
+        <v>16.5277777777778</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" si="7"/>
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="1">
+        <v>39</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="9"/>
+        <v>45.6</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="10"/>
+        <v>54.4</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="12"/>
+        <v>64.4</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="4"/>
+        <v>14.4439024390244</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="5"/>
+        <v>18.1611111111111</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="6"/>
+        <v>20.0277777777778</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" si="7"/>
+        <v>24.1266666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="1">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" si="4"/>
+        <v>16.5609756097561</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="5"/>
+        <v>20.8055555555556</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="6"/>
+        <v>23.1388888888889</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="7"/>
+        <v>28.4666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="1">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="9"/>
+        <v>64.1</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="10"/>
+        <v>75.9</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="11"/>
+        <v>91.5</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="12"/>
+        <v>98.4</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="4"/>
+        <v>20.1634146341463</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="5"/>
+        <v>25.2583333333333</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="6"/>
+        <v>28.2916666666667</v>
+      </c>
+      <c r="K51" s="7">
+        <f t="shared" si="7"/>
+        <v>35.56</v>
+      </c>
+      <c r="M51" s="8">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="1">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="9"/>
+        <v>71.5</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="10"/>
+        <v>84.5</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="11"/>
+        <v>102.5</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="4"/>
+        <v>21.9390243902439</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="5"/>
+        <v>27.5138888888889</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="6"/>
+        <v>31.0138888888889</v>
+      </c>
+      <c r="K52" s="7">
+        <f t="shared" si="7"/>
+        <v>39.4333333333333</v>
+      </c>
+      <c r="M52" s="8">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="1">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="9"/>
+        <v>78.9</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="10"/>
+        <v>93.1</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="11"/>
+        <v>113.5</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="12"/>
+        <v>125.6</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="4"/>
+        <v>24.0560975609756</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="5"/>
+        <v>30.1583333333333</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="6"/>
+        <v>34.125</v>
+      </c>
+      <c r="K53" s="7">
+        <f t="shared" si="7"/>
+        <v>43.7733333333333</v>
+      </c>
+      <c r="M53" s="8">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="1">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="9"/>
+        <v>78.9</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="10"/>
+        <v>93.1</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="11"/>
+        <v>113.5</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="12"/>
+        <v>125.6</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="4"/>
+        <v>24.909756097561</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="5"/>
+        <v>31.1305555555556</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="6"/>
+        <v>35.0972222222222</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="7"/>
+        <v>44.94</v>
+      </c>
+      <c r="M54" s="8">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="1">
+        <v>94</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="4"/>
+        <v>25.0975609756098</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="5"/>
+        <v>30.5277777777778</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="6"/>
+        <v>32.8611111111111</v>
+      </c>
+      <c r="K55" s="7">
+        <f t="shared" si="7"/>
+        <v>40.1333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="1">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="9"/>
+        <v>56.7</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="10"/>
+        <v>67.3</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="11"/>
+        <v>80.5</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="12"/>
+        <v>84.8</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="4"/>
+        <v>27.0951219512195</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="5"/>
+        <v>32.9194444444444</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="6"/>
+        <v>35.4861111111111</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" si="7"/>
+        <v>43.5866666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="1">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="9"/>
+        <v>64.1</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="10"/>
+        <v>75.9</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="11"/>
+        <v>91.5</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="12"/>
+        <v>98.4</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="4"/>
+        <v>29.5536585365854</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="5"/>
+        <v>35.9527777777778</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="6"/>
+        <v>38.9861111111111</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="7"/>
+        <v>48.3933333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="1">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="1">
+        <f>C58*37+16</f>
+        <v>34.5</v>
+      </c>
+      <c r="E58" s="1">
+        <f>C58*43+20</f>
+        <v>41.5</v>
+      </c>
+      <c r="F58" s="1">
+        <f>C58*55+20</f>
+        <v>47.5</v>
+      </c>
+      <c r="G58" s="1">
+        <f>C58*68+10</f>
+        <v>44</v>
+      </c>
+      <c r="H58" s="6">
+        <f>(B58+D58)*1.4/8.2</f>
+        <v>9.30487804878049</v>
+      </c>
+      <c r="I58" s="7">
+        <f>(B58+E58)*1.4/7.2</f>
+        <v>11.9583333333333</v>
+      </c>
+      <c r="J58" s="7">
+        <f>(B58+F58)*1.4/7.2</f>
+        <v>13.125</v>
+      </c>
+      <c r="K58" s="7">
+        <f>(B58+G58)*1.4/6</f>
+        <v>14.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5079,64 +5791,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5147,241 +5859,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/zxk/常用关键词库zxk.xlsx
+++ b/zxk/常用关键词库zxk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8520" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343">
   <si>
     <t>类型</t>
   </si>
@@ -743,6 +743,9 @@
     <t>美国运费</t>
   </si>
   <si>
+    <t>美国价格计算</t>
+  </si>
+  <si>
     <t>英国站价格</t>
   </si>
   <si>
@@ -752,9 +755,6 @@
     <t>意法西价格</t>
   </si>
   <si>
-    <t>美国价格计算</t>
-  </si>
-  <si>
     <t>英镑换算美元价格</t>
   </si>
   <si>
@@ -779,58 +779,28 @@
     <t>40元/KG+20</t>
   </si>
   <si>
-    <t>200g</t>
-  </si>
-  <si>
-    <t>TD印花T恤</t>
-  </si>
-  <si>
-    <t>连线运动T恤</t>
-  </si>
-  <si>
-    <t>连线运动长裤</t>
-  </si>
-  <si>
-    <t>流光运动长裤</t>
-  </si>
-  <si>
-    <t>男印花长裤</t>
-  </si>
-  <si>
-    <t>男插袖彩色长T</t>
-  </si>
-  <si>
-    <t>男运动套装001</t>
-  </si>
-  <si>
-    <t>中性印花休闲T恤</t>
-  </si>
-  <si>
-    <t>三件套</t>
-  </si>
-  <si>
-    <t>国王三件套</t>
-  </si>
-  <si>
-    <t>红狼/夕阳麋鹿三件套</t>
-  </si>
-  <si>
-    <t>结球枕头</t>
-  </si>
-  <si>
-    <t>纯色床笠full</t>
-  </si>
-  <si>
-    <t>queen</t>
-  </si>
-  <si>
-    <t>king</t>
-  </si>
-  <si>
-    <t>king2</t>
-  </si>
-  <si>
-    <t>鲨鱼3件套</t>
+    <t>吉他被套</t>
+  </si>
+  <si>
+    <t>黄金骷髅</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>捕梦网</t>
+  </si>
+  <si>
+    <t>阴阳系列</t>
+  </si>
+  <si>
+    <t>恐龙系列</t>
+  </si>
+  <si>
+    <t>蜘蛛棉</t>
+  </si>
+  <si>
+    <t>抽绳袋</t>
   </si>
   <si>
     <t>品名</t>
@@ -1122,18 +1092,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1168,45 +1144,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -1221,36 +1158,14 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1263,7 +1178,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1273,6 +1249,12 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1302,6 +1284,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="9"/>
       </patternFill>
@@ -1320,49 +1308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,7 +1332,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1441,27 +1423,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1476,6 +1445,15 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,7 +1476,42 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -1518,177 +1531,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1708,10 +1704,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1721,27 +1717,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1753,12 +1755,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1768,26 +1770,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1837,6 +1839,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 153" xfId="49"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2265,141 +2268,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2408,8 +2411,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
@@ -2417,7 +2420,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -2428,7 +2431,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -2437,7 +2440,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -2446,7 +2449,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -2455,7 +2458,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2467,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -2473,7 +2476,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
@@ -2484,7 +2487,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -2493,7 +2496,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -2502,7 +2505,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2514,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" t="s">
         <v>56</v>
       </c>
@@ -2520,22 +2523,22 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -2552,7 +2555,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B32" t="s">
@@ -2560,25 +2563,25 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
       <c r="B33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2592,7 +2595,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2600,25 +2603,25 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="16"/>
       <c r="B39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="16"/>
       <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="14"/>
+      <c r="A42" s="16"/>
       <c r="B42" t="s">
         <v>78</v>
       </c>
@@ -2632,7 +2635,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
@@ -2640,13 +2643,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="16"/>
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="16"/>
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2690,18 +2693,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2712,7 +2715,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -2721,7 +2724,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2730,7 +2733,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2739,7 +2742,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>95</v>
       </c>
@@ -2748,7 +2751,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B7" t="s">
@@ -2759,7 +2762,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>100</v>
       </c>
@@ -2768,7 +2771,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2777,7 +2780,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>104</v>
       </c>
@@ -2797,7 +2800,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -2808,7 +2811,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
@@ -2817,7 +2820,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -2826,7 +2829,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
@@ -2837,7 +2840,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -2846,7 +2849,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -2883,178 +2886,178 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="25" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3065,7 +3068,7 @@
       <c r="B17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3076,7 +3079,7 @@
       <c r="B18" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3090,29 +3093,29 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3 C8:C10">
@@ -3146,16 +3149,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>181</v>
       </c>
       <c r="E1" t="s">
@@ -3163,131 +3166,131 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
@@ -3296,7 +3299,7 @@
       <c r="C12" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
@@ -3304,14 +3307,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>192</v>
       </c>
       <c r="E13" t="s">
@@ -3319,14 +3322,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="16" t="s">
         <v>195</v>
       </c>
       <c r="E14" t="s">
@@ -3334,14 +3337,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
         <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>198</v>
       </c>
       <c r="E15" t="s">
@@ -3363,12 +3366,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57:K58"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3376,15 +3379,15 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="7"/>
-    <col min="10" max="10" width="10.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="16" style="7"/>
-    <col min="12" max="12" width="17.125" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="8"/>
+    <col min="8" max="9" width="16" style="6"/>
+    <col min="10" max="10" width="14.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="6"/>
+    <col min="12" max="12" width="10.875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:12">
+    <row r="1" s="5" customFormat="1" spans="1:13">
       <c r="A1" s="9" t="s">
         <v>221</v>
       </c>
@@ -3409,16 +3412,17 @@
       <c r="H1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3433,16 +3437,24 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" ht="17.25" spans="3:10">
       <c r="C3" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="G3" s="11">
+        <v>76</v>
+      </c>
+      <c r="H3" s="11">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:10">
+      <c r="A4" s="12" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3451,9 +3463,17 @@
       <c r="D4" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="G4" s="11">
+        <v>65</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>236</v>
       </c>
@@ -3461,435 +3481,329 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>240</v>
       </c>
       <c r="B6" s="1">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1">
-        <v>0.15</v>
+        <v>1.1</v>
       </c>
       <c r="D6" s="1">
-        <f>C6*37+16</f>
-        <v>21.55</v>
+        <f t="shared" ref="D6:D23" si="0">C6*37+16</f>
+        <v>56.7</v>
       </c>
       <c r="E6" s="1">
-        <f>C6*43+20</f>
-        <v>26.45</v>
+        <f t="shared" ref="E6:E23" si="1">C6*43+20</f>
+        <v>67.3</v>
       </c>
       <c r="F6" s="1">
-        <f>C6*55+20</f>
-        <v>28.25</v>
+        <f t="shared" ref="F6:F23" si="2">C6*55+20</f>
+        <v>80.5</v>
       </c>
       <c r="G6" s="1">
-        <f>C6*68+10</f>
-        <v>20.2</v>
+        <f>C6*72+10</f>
+        <v>89.2</v>
       </c>
       <c r="H6" s="6">
+        <f t="shared" ref="H6:H23" si="3">(B6+G6)/0.85/0.7/6.4</f>
+        <v>47.0588235294118</v>
+      </c>
+      <c r="J6" s="7">
         <f>(B6+D6)*1.4/8.2</f>
-        <v>7.60609756097561</v>
-      </c>
-      <c r="I6" s="7">
+        <v>25.0463414634146</v>
+      </c>
+      <c r="K6" s="6">
         <f>(B6+E6)*1.4/7.2</f>
-        <v>9.61527777777778</v>
-      </c>
-      <c r="J6" s="7">
+        <v>30.5861111111111</v>
+      </c>
+      <c r="L6" s="6">
         <f>(B6+F6)*1.4/7.2</f>
-        <v>9.96527777777778</v>
-      </c>
-      <c r="K6" s="7">
-        <f>(B6+G6)*1.4/6</f>
-        <v>10.08</v>
-      </c>
-      <c r="L6" s="7">
-        <f>1.4*H6</f>
-        <v>10.6485365853659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>33.1527777777778</v>
+      </c>
+      <c r="M6" s="6">
+        <f>1.4*J6</f>
+        <v>35.0648780487805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="14"/>
       <c r="B7" s="1">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D33" si="0">C7*37+16</f>
-        <v>21.55</v>
+        <f t="shared" si="0"/>
+        <v>71.5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E33" si="1">C7*43+20</f>
-        <v>26.45</v>
+        <f t="shared" si="1"/>
+        <v>84.5</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F33" si="2">C7*55+20</f>
-        <v>28.25</v>
+        <f t="shared" si="2"/>
+        <v>102.5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G33" si="3">C7*68+10</f>
-        <v>20.2</v>
+        <f t="shared" ref="G7:G23" si="4">C7*72+10</f>
+        <v>118</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" ref="H7:H57" si="4">(B7+D7)*1.4/8.2</f>
-        <v>7.43536585365854</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" ref="I7:I57" si="5">(B7+E7)*1.4/7.2</f>
-        <v>9.42083333333333</v>
+        <f t="shared" si="3"/>
+        <v>58.8235294117647</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" ref="J7:J57" si="6">(B7+F7)*1.4/7.2</f>
-        <v>9.77083333333333</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" ref="K7:K57" si="7">(B7+G7)*1.4/6</f>
-        <v>9.84666666666667</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" ref="L7:L40" si="8">1.4*H7</f>
-        <v>10.409512195122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>242</v>
-      </c>
+        <f>(B7+D7)*1.4/8.2</f>
+        <v>30.3048780487805</v>
+      </c>
+      <c r="K7" s="6">
+        <f>(B7+E7)*1.4/7.2</f>
+        <v>37.0416666666667</v>
+      </c>
+      <c r="L7" s="6">
+        <f>(B7+F7)*1.4/7.2</f>
+        <v>40.5416666666667</v>
+      </c>
+      <c r="M7" s="6">
+        <f>1.4*J7</f>
+        <v>42.4268292682927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="13"/>
       <c r="B8" s="1">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1">
-        <v>0.15</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>21.55</v>
+        <v>75.2</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>26.45</v>
+        <v>88.8</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>28.25</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="4"/>
+        <v>125.2</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="3"/>
-        <v>20.2</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="4"/>
-        <v>7.77682926829268</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="5"/>
-        <v>9.80972222222222</v>
+        <v>61.7647058823529</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="6"/>
-        <v>10.1597222222222</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="7"/>
-        <v>10.3133333333333</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="8"/>
-        <v>10.8875609756098</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>243</v>
+        <f>(B8+D8)*1.4/8.2</f>
+        <v>31.6195121951219</v>
+      </c>
+      <c r="K8" s="6">
+        <f>(B8+E8)*1.4/7.2</f>
+        <v>38.6555555555556</v>
+      </c>
+      <c r="L8" s="6">
+        <f>(B8+F8)*1.4/7.2</f>
+        <v>42.3888888888889</v>
+      </c>
+      <c r="M8" s="6">
+        <f>1.4*J8</f>
+        <v>44.2673170731707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="B9" s="1">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
-        <v>0.15</v>
+        <v>1.2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>21.55</v>
+        <v>60.4</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>26.45</v>
+        <v>71.6</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>28.25</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="4"/>
+        <v>96.4</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>20.2</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="4"/>
-        <v>7.94756097560975</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="5"/>
-        <v>10.0041666666667</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="6"/>
-        <v>10.3541666666667</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="7"/>
-        <v>10.5466666666667</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="8"/>
-        <v>11.1265853658537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>39.7584033613445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
       <c r="B10" s="1">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>21.55</v>
+        <v>71.5</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>26.45</v>
+        <v>84.5</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>28.25</v>
+        <v>102.5</v>
       </c>
       <c r="G10" s="1">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>20.2</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="4"/>
-        <v>9.65487804878049</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="5"/>
-        <v>11.9486111111111</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="6"/>
-        <v>12.2986111111111</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="7"/>
-        <v>12.88</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="8"/>
-        <v>13.5168292682927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>46.218487394958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="B11" s="1">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1">
-        <v>0.15</v>
+        <v>1.2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>21.55</v>
+        <v>60.4</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>26.45</v>
+        <v>71.6</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>28.25</v>
+        <v>86</v>
       </c>
       <c r="G11" s="1">
+        <f t="shared" si="4"/>
+        <v>96.4</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="3"/>
-        <v>20.2</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="4"/>
-        <v>8.45975609756097</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="5"/>
-        <v>10.5875</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="6"/>
-        <v>10.9375</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="7"/>
-        <v>11.2466666666667</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="8"/>
-        <v>11.8436585365854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>246</v>
-      </c>
+        <v>45.7983193277311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
       <c r="B12" s="1">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>23.4</v>
+        <v>67.8</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>28.6</v>
+        <v>80.2</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="4"/>
+        <v>110.8</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="3"/>
-        <v>23.6</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="4"/>
-        <v>8.77560975609756</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="5"/>
-        <v>11.0055555555556</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="6"/>
-        <v>11.4722222222222</v>
-      </c>
-      <c r="K12" s="7">
-        <f t="shared" si="7"/>
-        <v>12.04</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="8"/>
-        <v>12.2858536585366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>247</v>
+        <v>52.2058823529412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="B13" s="1">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>30.8</v>
+        <v>60.4</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>37.2</v>
+        <v>71.6</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G13" s="1">
+        <f t="shared" si="4"/>
+        <v>96.4</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="3"/>
-        <v>37.2</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="4"/>
-        <v>15.1609756097561</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="5"/>
-        <v>18.5111111111111</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="6"/>
-        <v>19.4444444444444</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="7"/>
-        <v>22.2133333333333</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="8"/>
-        <v>21.2253658536585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>47.6365546218487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13"/>
       <c r="B14" s="1">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>19.7</v>
+        <v>71.5</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>24.3</v>
+        <v>84.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>102.5</v>
       </c>
       <c r="G14" s="1">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" si="3"/>
-        <v>16.8</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="4"/>
-        <v>6.77804878048781</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="5"/>
-        <v>8.61388888888889</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="6"/>
-        <v>8.84722222222222</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="7"/>
-        <v>8.58666666666667</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="8"/>
-        <v>9.48926829268293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>249</v>
+        <v>55.9348739495798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="B15" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -3907,165 +3821,107 @@
         <v>75</v>
       </c>
       <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" si="3"/>
+        <v>40.703781512605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1">
         <v>78</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="4"/>
-        <v>16.9024390243902</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="5"/>
-        <v>21.1944444444444</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="6"/>
-        <v>23.5277777777778</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" si="7"/>
-        <v>28.9333333333333</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="8"/>
-        <v>23.6634146341463</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="1">
-        <v>47</v>
-      </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>60.4</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>71.6</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1">
+        <f t="shared" si="4"/>
+        <v>96.4</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="4"/>
-        <v>17.0731707317073</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="5"/>
-        <v>21.3888888888889</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="6"/>
-        <v>23.7222222222222</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="7"/>
-        <v>29.1666666666667</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="8"/>
-        <v>23.9024390243902</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
+        <v>45.7983193277311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14"/>
       <c r="B17" s="1">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>60.4</v>
+        <v>64.1</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>71.6</v>
+        <v>75.9</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>91.5</v>
       </c>
       <c r="G17" s="1">
+        <f t="shared" si="4"/>
+        <v>103.6</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="3"/>
-        <v>91.6</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="4"/>
-        <v>19.7024390243902</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="5"/>
-        <v>24.6166666666667</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="6"/>
-        <v>27.4166666666667</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="7"/>
-        <v>34.2066666666667</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="8"/>
-        <v>27.5834146341463</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+        <v>49.7899159663866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13"/>
       <c r="B18" s="1">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>67.8</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>80.2</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>110.8</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="4"/>
-        <v>15.3658536585366</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="5"/>
-        <v>19.4444444444444</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="6"/>
-        <v>21.7777777777778</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="7"/>
-        <v>26.8333333333333</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="8"/>
-        <v>21.5121951219512</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+        <v>52.9936974789916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="12" t="s">
+        <v>245</v>
+      </c>
       <c r="B19" s="1">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4083,1671 +3939,172 @@
         <v>75</v>
       </c>
       <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="4"/>
-        <v>15.7073170731707</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="5"/>
-        <v>19.8333333333333</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="6"/>
-        <v>22.1666666666667</v>
-      </c>
-      <c r="K19" s="7">
-        <f t="shared" si="7"/>
-        <v>27.3</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="8"/>
-        <v>21.990243902439</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v>44.6428571428571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="14"/>
       <c r="B20" s="1">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>71.5</v>
+        <v>60.4</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>84.5</v>
+        <v>71.6</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>102.5</v>
+        <v>86</v>
       </c>
       <c r="G20" s="1">
+        <f t="shared" si="4"/>
+        <v>96.4</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="4"/>
-        <v>20.5731707317073</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="5"/>
-        <v>25.9583333333333</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="6"/>
-        <v>29.4583333333333</v>
-      </c>
-      <c r="K20" s="7">
-        <f t="shared" si="7"/>
-        <v>37.5666666666667</v>
-      </c>
-      <c r="L20" s="7">
-        <f t="shared" si="8"/>
-        <v>28.8024390243902</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
+        <v>49.7373949579832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="14"/>
       <c r="B21" s="1">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>75.2</v>
+        <v>64.1</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>88.8</v>
+        <v>75.9</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>91.5</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>103.6</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="3"/>
-        <v>118.8</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="4"/>
-        <v>22.5707317073171</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="5"/>
-        <v>28.35</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="6"/>
-        <v>32.0833333333333</v>
-      </c>
-      <c r="K21" s="7">
-        <f t="shared" si="7"/>
-        <v>41.02</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" si="8"/>
-        <v>31.5990243902439</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
+        <v>52.9411764705882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13"/>
       <c r="B22" s="1">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>27.1</v>
+        <v>67.8</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>32.9</v>
+        <v>80.2</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>97</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>110.8</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" si="3"/>
-        <v>30.4</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="4"/>
-        <v>8.38292682926829</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="5"/>
-        <v>10.675</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="6"/>
-        <v>11.375</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="7"/>
-        <v>12.2266666666667</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="8"/>
-        <v>11.7360975609756</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>56.1449579831933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="B23" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>27.1</v>
+        <v>19.7</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>32.9</v>
+        <v>24.3</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="4"/>
+        <v>17.2</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="3"/>
+        <v>5.5672268907563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="1">
+        <f>C24*37+16</f>
+        <v>27.1</v>
+      </c>
+      <c r="E24" s="1">
+        <f>C24*43+20</f>
+        <v>32.9</v>
+      </c>
+      <c r="F24" s="1">
+        <f>C24*55+20</f>
         <v>36.5</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="3"/>
-        <v>30.4</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="4"/>
-        <v>9.23658536585366</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="5"/>
-        <v>11.6472222222222</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="6"/>
-        <v>12.3472222222222</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="7"/>
-        <v>13.3933333333333</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="8"/>
-        <v>12.9312195121951</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="1">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>41.5</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>47.5</v>
-      </c>
       <c r="G24" s="1">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>C24*72+10</f>
+        <v>31.6</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="4"/>
-        <v>11.3536585365854</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="5"/>
-        <v>14.2916666666667</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="6"/>
-        <v>15.4583333333333</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="7"/>
-        <v>17.7333333333333</v>
-      </c>
-      <c r="L24" s="7">
-        <f t="shared" si="8"/>
-        <v>15.8951219512195</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="1">
-        <v>147</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>71.5</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>84.5</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>102.5</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="4"/>
-        <v>37.3048780487805</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="5"/>
-        <v>45.0138888888889</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="6"/>
-        <v>48.5138888888889</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="7"/>
-        <v>60.4333333333333</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="8"/>
-        <v>52.2268292682927</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="1">
-        <v>183</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="4"/>
-        <v>46.609756097561</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="5"/>
-        <v>56.1944444444444</v>
-      </c>
-      <c r="J26" s="7">
-        <f t="shared" si="6"/>
-        <v>60.8611111111111</v>
-      </c>
-      <c r="K26" s="7">
-        <f t="shared" si="7"/>
-        <v>76.7666666666667</v>
-      </c>
-      <c r="L26" s="7">
-        <f t="shared" si="8"/>
-        <v>65.2536585365854</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="1">
-        <v>210</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>108.5</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>157.5</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="4"/>
-        <v>54.3780487804878</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="5"/>
-        <v>65.625</v>
-      </c>
-      <c r="J27" s="7">
-        <f t="shared" si="6"/>
-        <v>71.4583333333333</v>
-      </c>
-      <c r="K27" s="7">
-        <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-      <c r="L27" s="7">
-        <f t="shared" si="8"/>
-        <v>76.1292682926829</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="1">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>45.6</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>54.4</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="3"/>
-        <v>64.4</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="4"/>
-        <v>18.8829268292683</v>
-      </c>
-      <c r="I28" s="7">
-        <f t="shared" si="5"/>
-        <v>23.2166666666667</v>
-      </c>
-      <c r="J28" s="7">
-        <f t="shared" si="6"/>
-        <v>25.0833333333333</v>
-      </c>
-      <c r="K28" s="7">
-        <f t="shared" si="7"/>
-        <v>30.1933333333333</v>
-      </c>
-      <c r="L28" s="7">
-        <f t="shared" si="8"/>
-        <v>26.4360975609756</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="1">
-        <v>77</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="4"/>
-        <v>22.1951219512195</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="5"/>
-        <v>27.2222222222222</v>
-      </c>
-      <c r="J29" s="7">
-        <f t="shared" si="6"/>
-        <v>29.5555555555556</v>
-      </c>
-      <c r="K29" s="7">
-        <f t="shared" si="7"/>
-        <v>36.1666666666667</v>
-      </c>
-      <c r="L29" s="7">
-        <f t="shared" si="8"/>
-        <v>31.0731707317073</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="1">
-        <v>85</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>60.4</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>71.6</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="3"/>
-        <v>91.6</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="4"/>
-        <v>24.8243902439024</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="5"/>
-        <v>30.45</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="6"/>
-        <v>33.25</v>
-      </c>
-      <c r="K30" s="7">
-        <f t="shared" si="7"/>
-        <v>41.2066666666667</v>
-      </c>
-      <c r="L30" s="7">
-        <f t="shared" si="8"/>
-        <v>34.7541463414634</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="1">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="4"/>
-        <v>15.8780487804878</v>
-      </c>
-      <c r="I31" s="7">
-        <f t="shared" si="5"/>
-        <v>20.0277777777778</v>
-      </c>
-      <c r="J31" s="7">
-        <f t="shared" si="6"/>
-        <v>22.3611111111111</v>
-      </c>
-      <c r="K31" s="7">
-        <f t="shared" si="7"/>
-        <v>27.5333333333333</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" si="8"/>
-        <v>22.2292682926829</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="1">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>60.4</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>71.6</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="3"/>
-        <v>91.6</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="4"/>
-        <v>18.8487804878049</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="5"/>
-        <v>23.6444444444444</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" si="6"/>
-        <v>26.4444444444444</v>
-      </c>
-      <c r="K32" s="7">
-        <f t="shared" si="7"/>
-        <v>33.04</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="8"/>
-        <v>26.3882926829268</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="1">
-        <v>60</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>71.5</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>84.5</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="2"/>
-        <v>102.5</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="4"/>
-        <v>22.4512195121951</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="5"/>
-        <v>28.0972222222222</v>
-      </c>
-      <c r="J33" s="7">
-        <f t="shared" si="6"/>
-        <v>31.5972222222222</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="7"/>
-        <v>40.1333333333333</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="8"/>
-        <v>31.4317073170732</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12">
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:D57" si="9">C34*37+16</f>
-        <v>16</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" ref="E34:E57" si="10">C34*43+20</f>
-        <v>20</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34:F57" si="11">C34*55+20</f>
-        <v>20</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ref="G34:G57" si="12">C34*68+10</f>
-        <v>10</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="4"/>
-        <v>2.73170731707317</v>
-      </c>
-      <c r="I34" s="7">
-        <f t="shared" si="5"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="J34" s="7">
-        <f t="shared" si="6"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="K34" s="7">
-        <f t="shared" si="7"/>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" si="8"/>
-        <v>3.82439024390244</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12">
-      <c r="D35" s="1">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="4"/>
-        <v>2.73170731707317</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="5"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="6"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="K35" s="7">
-        <f t="shared" si="7"/>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="8"/>
-        <v>3.82439024390244</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12">
-      <c r="D36" s="1">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="4"/>
-        <v>2.73170731707317</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="5"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="J36" s="7">
-        <f t="shared" si="6"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="K36" s="7">
-        <f t="shared" si="7"/>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" si="8"/>
-        <v>3.82439024390244</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12">
-      <c r="D37" s="1">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="4"/>
-        <v>2.73170731707317</v>
-      </c>
-      <c r="I37" s="7">
-        <f t="shared" si="5"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="J37" s="7">
-        <f t="shared" si="6"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="K37" s="7">
-        <f t="shared" si="7"/>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="8"/>
-        <v>3.82439024390244</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12">
-      <c r="D38" s="1">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="4"/>
-        <v>2.73170731707317</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="5"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="J38" s="7">
-        <f t="shared" si="6"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="K38" s="7">
-        <f t="shared" si="7"/>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="8"/>
-        <v>3.82439024390244</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12">
-      <c r="D39" s="1">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="4"/>
-        <v>2.73170731707317</v>
-      </c>
-      <c r="I39" s="7">
-        <f t="shared" si="5"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="J39" s="7">
-        <f t="shared" si="6"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="K39" s="7">
-        <f t="shared" si="7"/>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="L39" s="7">
-        <f t="shared" si="8"/>
-        <v>3.82439024390244</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12">
-      <c r="D40" s="1">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="4"/>
-        <v>2.73170731707317</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="5"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="J40" s="7">
-        <f t="shared" si="6"/>
-        <v>3.88888888888889</v>
-      </c>
-      <c r="K40" s="7">
-        <f t="shared" si="7"/>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="L40" s="7">
-        <f t="shared" si="8"/>
-        <v>3.82439024390244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41" s="1">
-        <v>67</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="9"/>
-        <v>45.6</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="10"/>
-        <v>54.4</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="11"/>
-        <v>64</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="12"/>
-        <v>64.4</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="4"/>
-        <v>19.2243902439024</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="5"/>
-        <v>23.6055555555556</v>
-      </c>
-      <c r="J41" s="7">
-        <f t="shared" si="6"/>
-        <v>25.4722222222222</v>
-      </c>
-      <c r="K41" s="7">
-        <f t="shared" si="7"/>
-        <v>30.66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="1">
-        <v>79</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="9"/>
-        <v>56.7</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="10"/>
-        <v>67.3</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="11"/>
-        <v>80.5</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="12"/>
-        <v>84.8</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="4"/>
-        <v>23.1682926829268</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="5"/>
-        <v>28.4472222222222</v>
-      </c>
-      <c r="J42" s="7">
-        <f t="shared" si="6"/>
-        <v>31.0138888888889</v>
-      </c>
-      <c r="K42" s="7">
-        <f t="shared" si="7"/>
-        <v>38.22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="1">
-        <v>87</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="9"/>
-        <v>64.1</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="10"/>
-        <v>75.9</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="11"/>
-        <v>91.5</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="12"/>
-        <v>98.4</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="4"/>
-        <v>25.7975609756098</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="5"/>
-        <v>31.675</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="6"/>
-        <v>34.7083333333333</v>
-      </c>
-      <c r="K43" s="7">
-        <f t="shared" si="7"/>
-        <v>43.26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B44" s="1">
-        <v>58</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="9"/>
-        <v>45.6</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="10"/>
-        <v>54.4</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="11"/>
-        <v>64</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="12"/>
-        <v>64.4</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="4"/>
-        <v>17.6878048780488</v>
-      </c>
-      <c r="I44" s="7">
-        <f t="shared" si="5"/>
-        <v>21.8555555555556</v>
-      </c>
-      <c r="J44" s="7">
-        <f t="shared" si="6"/>
-        <v>23.7222222222222</v>
-      </c>
-      <c r="K44" s="7">
-        <f t="shared" si="7"/>
-        <v>28.56</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="1">
-        <v>70</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="9"/>
-        <v>56.7</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="10"/>
-        <v>67.3</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="11"/>
-        <v>80.5</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="12"/>
-        <v>84.8</v>
-      </c>
-      <c r="H45" s="6">
-        <f t="shared" si="4"/>
-        <v>21.6317073170732</v>
-      </c>
-      <c r="I45" s="7">
-        <f t="shared" si="5"/>
-        <v>26.6972222222222</v>
-      </c>
-      <c r="J45" s="7">
-        <f t="shared" si="6"/>
-        <v>29.2638888888889</v>
-      </c>
-      <c r="K45" s="7">
-        <f t="shared" si="7"/>
-        <v>36.12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="1">
-        <v>73</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="9"/>
-        <v>64.1</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="10"/>
-        <v>75.9</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="11"/>
-        <v>91.5</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="12"/>
-        <v>98.4</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="4"/>
-        <v>23.4073170731707</v>
-      </c>
-      <c r="I46" s="7">
-        <f t="shared" si="5"/>
-        <v>28.9527777777778</v>
-      </c>
-      <c r="J46" s="7">
-        <f t="shared" si="6"/>
-        <v>31.9861111111111</v>
-      </c>
-      <c r="K46" s="7">
-        <f t="shared" si="7"/>
-        <v>39.9933333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="1">
-        <v>26</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="9"/>
-        <v>27.1</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="10"/>
-        <v>32.9</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="11"/>
-        <v>36.5</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="12"/>
-        <v>30.4</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="4"/>
-        <v>9.06585365853659</v>
-      </c>
-      <c r="I47" s="7">
-        <f t="shared" si="5"/>
-        <v>11.4527777777778</v>
-      </c>
-      <c r="J47" s="7">
-        <f t="shared" si="6"/>
-        <v>12.1527777777778</v>
-      </c>
-      <c r="K47" s="7">
-        <f t="shared" si="7"/>
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="1">
-        <v>32</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="9"/>
-        <v>38.2</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="10"/>
-        <v>45.8</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="11"/>
-        <v>53</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="12"/>
-        <v>50.8</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" si="4"/>
-        <v>11.9853658536585</v>
-      </c>
-      <c r="I48" s="7">
-        <f t="shared" si="5"/>
-        <v>15.1277777777778</v>
-      </c>
-      <c r="J48" s="7">
-        <f t="shared" si="6"/>
-        <v>16.5277777777778</v>
-      </c>
-      <c r="K48" s="7">
-        <f t="shared" si="7"/>
-        <v>19.32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="1">
-        <v>39</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="9"/>
-        <v>45.6</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="10"/>
-        <v>54.4</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="11"/>
-        <v>64</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="12"/>
-        <v>64.4</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" si="4"/>
-        <v>14.4439024390244</v>
-      </c>
-      <c r="I49" s="7">
-        <f t="shared" si="5"/>
-        <v>18.1611111111111</v>
-      </c>
-      <c r="J49" s="7">
-        <f t="shared" si="6"/>
-        <v>20.0277777777778</v>
-      </c>
-      <c r="K49" s="7">
-        <f t="shared" si="7"/>
-        <v>24.1266666666667</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="1">
-        <v>44</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="10"/>
-        <v>63</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="12"/>
-        <v>78</v>
-      </c>
-      <c r="H50" s="6">
-        <f t="shared" si="4"/>
-        <v>16.5609756097561</v>
-      </c>
-      <c r="I50" s="7">
-        <f t="shared" si="5"/>
-        <v>20.8055555555556</v>
-      </c>
-      <c r="J50" s="7">
-        <f t="shared" si="6"/>
-        <v>23.1388888888889</v>
-      </c>
-      <c r="K50" s="7">
-        <f t="shared" si="7"/>
-        <v>28.4666666666667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="1">
-        <v>54</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="9"/>
-        <v>64.1</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="10"/>
-        <v>75.9</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="11"/>
-        <v>91.5</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="12"/>
-        <v>98.4</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="4"/>
-        <v>20.1634146341463</v>
-      </c>
-      <c r="I51" s="7">
-        <f t="shared" si="5"/>
-        <v>25.2583333333333</v>
-      </c>
-      <c r="J51" s="7">
-        <f t="shared" si="6"/>
-        <v>28.2916666666667</v>
-      </c>
-      <c r="K51" s="7">
-        <f t="shared" si="7"/>
-        <v>35.56</v>
-      </c>
-      <c r="M51" s="8">
-        <v>20.99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="1">
-        <v>57</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="9"/>
-        <v>71.5</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="10"/>
-        <v>84.5</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="11"/>
-        <v>102.5</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="12"/>
-        <v>112</v>
-      </c>
-      <c r="H52" s="6">
-        <f t="shared" si="4"/>
-        <v>21.9390243902439</v>
-      </c>
-      <c r="I52" s="7">
-        <f t="shared" si="5"/>
-        <v>27.5138888888889</v>
-      </c>
-      <c r="J52" s="7">
-        <f t="shared" si="6"/>
-        <v>31.0138888888889</v>
-      </c>
-      <c r="K52" s="7">
-        <f t="shared" si="7"/>
-        <v>39.4333333333333</v>
-      </c>
-      <c r="M52" s="8">
-        <v>22.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B53" s="1">
-        <v>62</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="9"/>
-        <v>78.9</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="10"/>
-        <v>93.1</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" si="11"/>
-        <v>113.5</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="12"/>
-        <v>125.6</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="4"/>
-        <v>24.0560975609756</v>
-      </c>
-      <c r="I53" s="7">
-        <f t="shared" si="5"/>
-        <v>30.1583333333333</v>
-      </c>
-      <c r="J53" s="7">
-        <f t="shared" si="6"/>
-        <v>34.125</v>
-      </c>
-      <c r="K53" s="7">
-        <f t="shared" si="7"/>
-        <v>43.7733333333333</v>
-      </c>
-      <c r="M53" s="8">
-        <v>25.99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="1">
-        <v>67</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="9"/>
-        <v>78.9</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="10"/>
-        <v>93.1</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="11"/>
-        <v>113.5</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="12"/>
-        <v>125.6</v>
-      </c>
-      <c r="H54" s="6">
-        <f t="shared" si="4"/>
-        <v>24.909756097561</v>
-      </c>
-      <c r="I54" s="7">
-        <f t="shared" si="5"/>
-        <v>31.1305555555556</v>
-      </c>
-      <c r="J54" s="7">
-        <f t="shared" si="6"/>
-        <v>35.0972222222222</v>
-      </c>
-      <c r="K54" s="7">
-        <f t="shared" si="7"/>
-        <v>44.94</v>
-      </c>
-      <c r="M54" s="8">
-        <v>27.99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B55" s="1">
-        <v>94</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="10"/>
-        <v>63</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="12"/>
-        <v>78</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="4"/>
-        <v>25.0975609756098</v>
-      </c>
-      <c r="I55" s="7">
-        <f t="shared" si="5"/>
-        <v>30.5277777777778</v>
-      </c>
-      <c r="J55" s="7">
-        <f t="shared" si="6"/>
-        <v>32.8611111111111</v>
-      </c>
-      <c r="K55" s="7">
-        <f t="shared" si="7"/>
-        <v>40.1333333333333</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="1">
-        <v>102</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="9"/>
-        <v>56.7</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="10"/>
-        <v>67.3</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="11"/>
-        <v>80.5</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="12"/>
-        <v>84.8</v>
-      </c>
-      <c r="H56" s="6">
-        <f t="shared" si="4"/>
-        <v>27.0951219512195</v>
-      </c>
-      <c r="I56" s="7">
-        <f t="shared" si="5"/>
-        <v>32.9194444444444</v>
-      </c>
-      <c r="J56" s="7">
-        <f t="shared" si="6"/>
-        <v>35.4861111111111</v>
-      </c>
-      <c r="K56" s="7">
-        <f t="shared" si="7"/>
-        <v>43.5866666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="1">
-        <v>109</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="9"/>
-        <v>64.1</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="10"/>
-        <v>75.9</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="11"/>
-        <v>91.5</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="12"/>
-        <v>98.4</v>
-      </c>
-      <c r="H57" s="6">
-        <f t="shared" si="4"/>
-        <v>29.5536585365854</v>
-      </c>
-      <c r="I57" s="7">
-        <f t="shared" si="5"/>
-        <v>35.9527777777778</v>
-      </c>
-      <c r="J57" s="7">
-        <f t="shared" si="6"/>
-        <v>38.9861111111111</v>
-      </c>
-      <c r="K57" s="7">
-        <f t="shared" si="7"/>
-        <v>48.3933333333333</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="1">
-        <v>20</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="1">
-        <f>C58*37+16</f>
-        <v>34.5</v>
-      </c>
-      <c r="E58" s="1">
-        <f>C58*43+20</f>
-        <v>41.5</v>
-      </c>
-      <c r="F58" s="1">
-        <f>C58*55+20</f>
-        <v>47.5</v>
-      </c>
-      <c r="G58" s="1">
-        <f>C58*68+10</f>
-        <v>44</v>
-      </c>
-      <c r="H58" s="6">
-        <f>(B58+D58)*1.4/8.2</f>
-        <v>9.30487804878049</v>
-      </c>
-      <c r="I58" s="7">
-        <f>(B58+E58)*1.4/7.2</f>
-        <v>11.9583333333333</v>
-      </c>
-      <c r="J58" s="7">
-        <f>(B58+F58)*1.4/7.2</f>
-        <v>13.125</v>
-      </c>
-      <c r="K58" s="7">
-        <f>(B58+G58)*1.4/6</f>
-        <v>14.9333333333333</v>
+        <f>(B24+G24)/0.85/0.7/6.4</f>
+        <v>11.4495798319328</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5791,64 +4148,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -5859,241 +4216,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="T5" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="V5" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
